--- a/csv_database/xlsx/filter.xlsx
+++ b/csv_database/xlsx/filter.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="131">
-  <si>
-    <t>Notable_features</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="132">
   <si>
     <t>C_Black</t>
   </si>
@@ -68,9 +65,6 @@
     <t>Anatidae</t>
   </si>
   <si>
-    <t>Long neck, wing bar</t>
-  </si>
-  <si>
     <t>Fulvous Whistling Duck</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>Anser albifrons</t>
   </si>
   <si>
-    <t>Long neck</t>
-  </si>
-  <si>
     <t>Lesser white-fronted goose</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
     <t>Aix sponsa</t>
   </si>
   <si>
-    <t>Colorful</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -218,9 +206,6 @@
     <t>Anas clypeata</t>
   </si>
   <si>
-    <t>Large bill, colorful, similar to mallard</t>
-  </si>
-  <si>
     <t>Northern Pintail</t>
   </si>
   <si>
@@ -311,9 +296,6 @@
     <t>Clangula hyemalis</t>
   </si>
   <si>
-    <t>Long tail</t>
-  </si>
-  <si>
     <t>Bufflehead</t>
   </si>
   <si>
@@ -338,9 +320,6 @@
     <t>Lophodytes cucullatus</t>
   </si>
   <si>
-    <t>Plumage (head)</t>
-  </si>
-  <si>
     <t>Common Merganser</t>
   </si>
   <si>
@@ -417,6 +396,30 @@
   </si>
   <si>
     <t>family</t>
+  </si>
+  <si>
+    <t>NF_wing_bar</t>
+  </si>
+  <si>
+    <t>NF_long_neck</t>
+  </si>
+  <si>
+    <t>NF_colorful</t>
+  </si>
+  <si>
+    <t>NF_large_bill</t>
+  </si>
+  <si>
+    <t>similar to mallard</t>
+  </si>
+  <si>
+    <t>NF_long_tail</t>
+  </si>
+  <si>
+    <t>NF_plumage</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -787,117 +790,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>47</v>
@@ -917,52 +942,70 @@
       <c r="K2">
         <v>94</v>
       </c>
-      <c r="L2" t="s">
-        <v>14</v>
+      <c r="L2">
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>45</v>
@@ -982,17 +1025,17 @@
       <c r="K3">
         <v>94</v>
       </c>
-      <c r="L3" t="s">
-        <v>14</v>
+      <c r="L3">
+        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1000,34 +1043,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
+      <c r="R3" t="s">
+        <v>19</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -1047,52 +1108,70 @@
       <c r="K4">
         <v>165</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>19</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>53</v>
@@ -1100,11 +1179,11 @@
       <c r="G5">
         <v>66</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
+      <c r="H5" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1000000000</v>
       </c>
       <c r="J5" s="3">
         <v>120</v>
@@ -1112,52 +1191,70 @@
       <c r="K5">
         <v>135</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>19</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>64</v>
@@ -1177,52 +1274,70 @@
       <c r="K6">
         <v>165</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>19</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>64</v>
@@ -1242,52 +1357,70 @@
       <c r="K7">
         <v>165</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>19</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>64</v>
@@ -1307,52 +1440,70 @@
       <c r="K8">
         <v>165</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>19</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>64</v>
@@ -1372,52 +1523,70 @@
       <c r="K9">
         <v>165</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>19</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>57</v>
@@ -1437,52 +1606,70 @@
       <c r="K10">
         <v>115</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>19</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>55</v>
@@ -1502,52 +1689,70 @@
       <c r="K11">
         <v>121</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
         <v>19</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <v>0.95</v>
@@ -1561,58 +1766,76 @@
       <c r="I12">
         <v>1.5</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="J12" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
         <v>19</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>75</v>
@@ -1632,52 +1855,70 @@
       <c r="K13">
         <v>185</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>19</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>138</v>
@@ -1697,52 +1938,70 @@
       <c r="K14">
         <v>185</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
         <v>19</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>115</v>
@@ -1762,52 +2021,70 @@
       <c r="K15">
         <v>211</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>19</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>47</v>
@@ -1827,52 +2104,70 @@
       <c r="K16">
         <v>73</v>
       </c>
-      <c r="L16" t="s">
-        <v>44</v>
+      <c r="L16">
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>1</v>
+      <c r="R16" t="s">
+        <v>19</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>47</v>
@@ -1892,17 +2187,17 @@
       <c r="K17">
         <v>73</v>
       </c>
-      <c r="L17" t="s">
-        <v>22</v>
+      <c r="L17">
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1910,34 +2205,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
+      <c r="R17" t="s">
+        <v>19</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>56</v>
@@ -1957,14 +2270,14 @@
       <c r="K18">
         <v>90</v>
       </c>
-      <c r="L18" t="s">
-        <v>22</v>
+      <c r="L18">
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1973,36 +2286,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>19</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>56</v>
@@ -2022,17 +2353,17 @@
       <c r="K19">
         <v>90</v>
       </c>
-      <c r="L19" t="s">
-        <v>22</v>
+      <c r="L19">
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2040,34 +2371,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19">
-        <v>1</v>
+      <c r="R19" t="s">
+        <v>19</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>42</v>
@@ -2087,52 +2436,70 @@
       <c r="K20">
         <v>80</v>
       </c>
-      <c r="L20" t="s">
-        <v>22</v>
+      <c r="L20">
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>19</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <v>42</v>
@@ -2152,17 +2519,17 @@
       <c r="K21">
         <v>91</v>
       </c>
-      <c r="L21" t="s">
-        <v>22</v>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2170,8 +2537,8 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>0</v>
+      <c r="R21" t="s">
+        <v>19</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2180,24 +2547,42 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>42</v>
@@ -2217,8 +2602,8 @@
       <c r="K22">
         <v>91</v>
       </c>
-      <c r="L22" t="s">
-        <v>22</v>
+      <c r="L22">
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2235,8 +2620,8 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>0</v>
+      <c r="R22" t="s">
+        <v>19</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2247,22 +2632,40 @@
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>48</v>
@@ -2282,8 +2685,8 @@
       <c r="K23">
         <v>96</v>
       </c>
-      <c r="L23" t="s">
-        <v>22</v>
+      <c r="L23">
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2292,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2300,8 +2703,8 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23">
-        <v>1</v>
+      <c r="R23" t="s">
+        <v>19</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2310,24 +2713,42 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -2347,52 +2768,70 @@
       <c r="K24">
         <v>98</v>
       </c>
-      <c r="L24" t="s">
-        <v>22</v>
+      <c r="L24">
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>19</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>50</v>
@@ -2412,17 +2851,17 @@
       <c r="K25">
         <v>98</v>
       </c>
-      <c r="L25" t="s">
-        <v>22</v>
+      <c r="L25">
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2430,34 +2869,52 @@
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25">
-        <v>1</v>
+      <c r="R25" t="s">
+        <v>19</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <v>44</v>
@@ -2477,17 +2934,17 @@
       <c r="K26">
         <v>90</v>
       </c>
-      <c r="L26" t="s">
-        <v>22</v>
+      <c r="L26">
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2495,34 +2952,52 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26">
-        <v>1</v>
+      <c r="R26" t="s">
+        <v>19</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>36</v>
@@ -2542,17 +3017,17 @@
       <c r="K27">
         <v>62</v>
       </c>
-      <c r="L27" t="s">
-        <v>22</v>
+      <c r="L27">
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2560,34 +3035,52 @@
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27">
-        <v>0</v>
+      <c r="R27" t="s">
+        <v>19</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
       <c r="U27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>36</v>
@@ -2607,17 +3100,17 @@
       <c r="K28">
         <v>62</v>
       </c>
-      <c r="L28" t="s">
-        <v>22</v>
+      <c r="L28">
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2625,34 +3118,52 @@
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28">
-        <v>0</v>
+      <c r="R28" t="s">
+        <v>19</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>36</v>
@@ -2666,58 +3177,76 @@
       <c r="I29">
         <v>0.5</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
-        <v>22</v>
+      <c r="J29" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29">
-        <v>0</v>
+      <c r="R29" t="s">
+        <v>19</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>36</v>
@@ -2731,23 +3260,23 @@
       <c r="I30">
         <v>0.5</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" t="s">
-        <v>22</v>
+      <c r="J30" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2755,34 +3284,52 @@
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30">
-        <v>0</v>
+      <c r="R30" t="s">
+        <v>19</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <v>44</v>
@@ -2802,11 +3349,11 @@
       <c r="K31">
         <v>80</v>
       </c>
-      <c r="L31" t="s">
-        <v>64</v>
+      <c r="L31">
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2818,36 +3365,54 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>128</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>44</v>
@@ -2867,11 +3432,11 @@
       <c r="K32">
         <v>80</v>
       </c>
-      <c r="L32" t="s">
-        <v>64</v>
+      <c r="L32">
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2885,34 +3450,52 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32">
-        <v>0</v>
+      <c r="R32" t="s">
+        <v>128</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33">
         <v>59</v>
@@ -2932,17 +3515,17 @@
       <c r="K33">
         <v>95</v>
       </c>
-      <c r="L33" t="s">
-        <v>22</v>
+      <c r="L33">
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2950,34 +3533,52 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33">
-        <v>0</v>
+      <c r="R33" t="s">
+        <v>19</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34">
         <v>51</v>
@@ -2997,17 +3598,17 @@
       <c r="K34">
         <v>95</v>
       </c>
-      <c r="L34" t="s">
-        <v>22</v>
+      <c r="L34">
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3015,64 +3616,82 @@
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34">
-        <v>0</v>
+      <c r="R34" t="s">
+        <v>19</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" t="s">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3080,64 +3699,82 @@
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35">
-        <v>0</v>
+      <c r="R35" t="s">
+        <v>64</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" t="s">
-        <v>70</v>
+        <v>12</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3145,8 +3782,8 @@
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36">
-        <v>0</v>
+      <c r="R36" t="s">
+        <v>65</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3155,24 +3792,42 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <v>31</v>
@@ -3192,52 +3847,70 @@
       <c r="K37">
         <v>59</v>
       </c>
-      <c r="L37" t="s">
-        <v>22</v>
+      <c r="L37">
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>19</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>31</v>
@@ -3257,17 +3930,17 @@
       <c r="K38">
         <v>59</v>
       </c>
-      <c r="L38" t="s">
-        <v>22</v>
+      <c r="L38">
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3275,34 +3948,52 @@
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38">
-        <v>0</v>
+      <c r="R38" t="s">
+        <v>19</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39">
         <v>48</v>
@@ -3322,52 +4013,70 @@
       <c r="K39">
         <v>89</v>
       </c>
-      <c r="L39" t="s">
-        <v>22</v>
+      <c r="L39">
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>19</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40">
         <v>48</v>
@@ -3387,17 +4096,17 @@
       <c r="K40">
         <v>89</v>
       </c>
-      <c r="L40" t="s">
-        <v>22</v>
+      <c r="L40">
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3405,34 +4114,52 @@
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40">
-        <v>0</v>
+      <c r="R40" t="s">
+        <v>19</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41">
         <v>42</v>
@@ -3452,52 +4179,70 @@
       <c r="K41">
         <v>79</v>
       </c>
-      <c r="L41" t="s">
-        <v>22</v>
+      <c r="L41">
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>19</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42">
         <v>42</v>
@@ -3517,17 +4262,17 @@
       <c r="K42">
         <v>79</v>
       </c>
-      <c r="L42" t="s">
-        <v>22</v>
+      <c r="L42">
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3535,34 +4280,52 @@
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42">
-        <v>0</v>
+      <c r="R42" t="s">
+        <v>19</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43">
         <v>39</v>
@@ -3582,52 +4345,70 @@
       <c r="K43">
         <v>63</v>
       </c>
-      <c r="L43" t="s">
-        <v>22</v>
+      <c r="L43">
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>19</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44">
         <v>39</v>
@@ -3647,17 +4428,17 @@
       <c r="K44">
         <v>63</v>
       </c>
-      <c r="L44" t="s">
-        <v>22</v>
+      <c r="L44">
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -3665,61 +4446,79 @@
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="R44">
-        <v>0</v>
+      <c r="R44" t="s">
+        <v>19</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -3730,55 +4529,73 @@
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="R45">
-        <v>1</v>
+      <c r="R45" t="s">
+        <v>19</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3787,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3795,8 +4612,8 @@
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="R46">
-        <v>1</v>
+      <c r="R46" t="s">
+        <v>19</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3805,24 +4622,42 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47">
         <v>39</v>
@@ -3842,17 +4677,17 @@
       <c r="K47">
         <v>84</v>
       </c>
-      <c r="L47" t="s">
-        <v>22</v>
+      <c r="L47">
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3860,34 +4695,52 @@
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47">
-        <v>1</v>
+      <c r="R47" t="s">
+        <v>19</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>1</v>
       </c>
       <c r="U47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48">
         <v>39</v>
@@ -3907,17 +4760,17 @@
       <c r="K48">
         <v>84</v>
       </c>
-      <c r="L48" t="s">
-        <v>22</v>
+      <c r="L48">
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3925,8 +4778,8 @@
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48">
-        <v>1</v>
+      <c r="R48" t="s">
+        <v>19</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3935,24 +4788,42 @@
         <v>1</v>
       </c>
       <c r="U48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <v>38</v>
@@ -3972,14 +4843,14 @@
       <c r="K49">
         <v>78</v>
       </c>
-      <c r="L49" t="s">
-        <v>22</v>
+      <c r="L49">
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -3988,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>1</v>
-      </c>
-      <c r="R49">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>19</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -4002,22 +4873,40 @@
       <c r="U49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>38</v>
@@ -4037,17 +4926,17 @@
       <c r="K50">
         <v>78</v>
       </c>
-      <c r="L50" t="s">
-        <v>22</v>
+      <c r="L50">
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4055,8 +4944,8 @@
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50">
-        <v>1</v>
+      <c r="R50" t="s">
+        <v>19</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4065,24 +4954,42 @@
         <v>1</v>
       </c>
       <c r="U50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51">
         <v>33</v>
@@ -4102,52 +5009,70 @@
       <c r="K51">
         <v>66</v>
       </c>
-      <c r="L51" t="s">
-        <v>44</v>
+      <c r="L51">
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>19</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52">
         <v>33</v>
@@ -4167,17 +5092,17 @@
       <c r="K52">
         <v>66</v>
       </c>
-      <c r="L52" t="s">
-        <v>22</v>
+      <c r="L52">
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -4185,34 +5110,52 @@
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52">
-        <v>0</v>
+      <c r="R52" t="s">
+        <v>19</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53">
         <v>48</v>
@@ -4232,14 +5175,14 @@
       <c r="K53">
         <v>79</v>
       </c>
-      <c r="L53" t="s">
-        <v>22</v>
+      <c r="L53">
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4250,34 +5193,52 @@
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53">
-        <v>1</v>
+      <c r="R53" t="s">
+        <v>19</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54">
         <v>48</v>
@@ -4297,52 +5258,70 @@
       <c r="K54">
         <v>79</v>
       </c>
-      <c r="L54" t="s">
-        <v>22</v>
+      <c r="L54">
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54">
-        <v>0</v>
+      <c r="R54" t="s">
+        <v>19</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55">
         <v>52</v>
@@ -4362,14 +5341,14 @@
       <c r="K55">
         <v>60</v>
       </c>
-      <c r="L55" t="s">
-        <v>22</v>
+      <c r="L55">
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -4380,34 +5359,52 @@
       <c r="Q55">
         <v>0</v>
       </c>
-      <c r="R55">
-        <v>0</v>
+      <c r="R55" t="s">
+        <v>19</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56">
         <v>50</v>
@@ -4427,17 +5424,17 @@
       <c r="K56">
         <v>56</v>
       </c>
-      <c r="L56" t="s">
-        <v>22</v>
+      <c r="L56">
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -4445,34 +5442,52 @@
       <c r="Q56">
         <v>0</v>
       </c>
-      <c r="R56">
-        <v>0</v>
+      <c r="R56" t="s">
+        <v>19</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <v>48</v>
@@ -4492,11 +5507,11 @@
       <c r="K57">
         <v>84</v>
       </c>
-      <c r="L57" t="s">
-        <v>22</v>
+      <c r="L57">
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4510,11 +5525,11 @@
       <c r="Q57">
         <v>0</v>
       </c>
-      <c r="R57">
-        <v>1</v>
+      <c r="R57" t="s">
+        <v>19</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4522,22 +5537,40 @@
       <c r="U57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58">
         <v>43</v>
@@ -4557,8 +5590,8 @@
       <c r="K58">
         <v>84</v>
       </c>
-      <c r="L58" t="s">
-        <v>22</v>
+      <c r="L58">
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -4567,16 +5600,16 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>1</v>
-      </c>
-      <c r="R58">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
+        <v>19</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -4585,24 +5618,42 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59">
         <v>44</v>
@@ -4622,14 +5673,14 @@
       <c r="K59">
         <v>71</v>
       </c>
-      <c r="L59" t="s">
-        <v>95</v>
+      <c r="L59">
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -4638,36 +5689,54 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R59" t="s">
+        <v>19</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <v>44</v>
@@ -4687,52 +5756,70 @@
       <c r="K60">
         <v>71</v>
       </c>
-      <c r="L60" t="s">
-        <v>22</v>
+      <c r="L60">
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R60" t="s">
+        <v>19</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61">
         <v>32</v>
@@ -4752,14 +5839,14 @@
       <c r="K61">
         <v>55</v>
       </c>
-      <c r="L61" t="s">
-        <v>22</v>
+      <c r="L61">
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -4770,34 +5857,52 @@
       <c r="Q61">
         <v>0</v>
       </c>
-      <c r="R61">
-        <v>0</v>
+      <c r="R61" t="s">
+        <v>19</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62">
         <v>32</v>
@@ -4817,14 +5922,14 @@
       <c r="K62">
         <v>55</v>
       </c>
-      <c r="L62" t="s">
-        <v>22</v>
+      <c r="L62">
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -4833,36 +5938,54 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>19</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>45</v>
@@ -4882,14 +6005,14 @@
       <c r="K63">
         <v>83</v>
       </c>
-      <c r="L63" t="s">
-        <v>22</v>
+      <c r="L63">
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -4900,34 +6023,52 @@
       <c r="Q63">
         <v>0</v>
       </c>
-      <c r="R63">
-        <v>1</v>
+      <c r="R63" t="s">
+        <v>19</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <v>40</v>
@@ -4947,52 +6088,70 @@
       <c r="K64">
         <v>77</v>
       </c>
-      <c r="L64" t="s">
-        <v>22</v>
+      <c r="L64">
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>19</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>43</v>
@@ -5006,20 +6165,20 @@
       <c r="I65">
         <v>1.32</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" t="s">
-        <v>22</v>
+      <c r="J65" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -5030,34 +6189,52 @@
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65">
-        <v>1</v>
+      <c r="R65" t="s">
+        <v>19</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>43</v>
@@ -5071,23 +6248,23 @@
       <c r="I66">
         <v>1.32</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" t="s">
-        <v>22</v>
+      <c r="J66" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -5095,34 +6272,52 @@
       <c r="Q66">
         <v>0</v>
       </c>
-      <c r="R66">
-        <v>1</v>
+      <c r="R66" t="s">
+        <v>19</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67">
         <v>40</v>
@@ -5142,52 +6337,70 @@
       <c r="K67">
         <v>66</v>
       </c>
-      <c r="L67" t="s">
-        <v>104</v>
+      <c r="L67">
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R67" t="s">
+        <v>19</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68">
         <v>39</v>
@@ -5207,8 +6420,8 @@
       <c r="K68">
         <v>63</v>
       </c>
-      <c r="L68" t="s">
-        <v>104</v>
+      <c r="L68">
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -5217,16 +6430,16 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R68" t="s">
+        <v>19</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -5235,24 +6448,42 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69">
         <v>58</v>
@@ -5272,52 +6503,70 @@
       <c r="K69">
         <v>97</v>
       </c>
-      <c r="L69" t="s">
-        <v>22</v>
+      <c r="L69">
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
-      <c r="R69">
-        <v>0</v>
+      <c r="R69" t="s">
+        <v>19</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70">
         <v>58</v>
@@ -5337,52 +6586,70 @@
       <c r="K70">
         <v>97</v>
       </c>
-      <c r="L70" t="s">
-        <v>22</v>
+      <c r="L70">
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1</v>
-      </c>
-      <c r="R70">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>19</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <v>51</v>
@@ -5402,52 +6669,70 @@
       <c r="K71">
         <v>86</v>
       </c>
-      <c r="L71" t="s">
-        <v>109</v>
+      <c r="L71">
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>102</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72">
         <v>51</v>
@@ -5467,8 +6752,8 @@
       <c r="K72">
         <v>86</v>
       </c>
-      <c r="L72" t="s">
-        <v>109</v>
+      <c r="L72">
+        <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -5477,16 +6762,16 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>102</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -5495,24 +6780,42 @@
         <v>0</v>
       </c>
       <c r="U72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>34</v>
@@ -5532,17 +6835,17 @@
       <c r="K73">
         <v>47</v>
       </c>
-      <c r="L73" t="s">
-        <v>112</v>
+      <c r="L73">
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -5550,34 +6853,52 @@
       <c r="Q73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>0</v>
+      <c r="R73" t="s">
+        <v>105</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73">
         <v>1</v>
       </c>
       <c r="U73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74">
         <v>34</v>
@@ -5597,17 +6918,17 @@
       <c r="K74">
         <v>47</v>
       </c>
-      <c r="L74" t="s">
-        <v>22</v>
+      <c r="L74">
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -5615,34 +6936,52 @@
       <c r="Q74">
         <v>0</v>
       </c>
-      <c r="R74">
-        <v>0</v>
+      <c r="R74" t="s">
+        <v>19</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F75">
         <v>25</v>
@@ -5662,52 +7001,70 @@
       <c r="K75">
         <v>38</v>
       </c>
-      <c r="L75" t="s">
-        <v>22</v>
+      <c r="L75">
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>19</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F76">
         <v>24</v>
@@ -5727,52 +7084,70 @@
       <c r="K76">
         <v>36</v>
       </c>
-      <c r="L76" t="s">
-        <v>104</v>
+      <c r="L76">
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
         <v>1</v>
       </c>
-      <c r="R76">
-        <v>0</v>
+      <c r="R76" t="s">
+        <v>19</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F77">
         <v>24</v>
@@ -5792,17 +7167,17 @@
       <c r="K77">
         <v>38</v>
       </c>
-      <c r="L77" t="s">
-        <v>22</v>
+      <c r="L77">
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -5810,16 +7185,34 @@
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77">
-        <v>0</v>
+      <c r="R77" t="s">
+        <v>19</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
         <v>0</v>
       </c>
     </row>

--- a/csv_database/xlsx/filter.xlsx
+++ b/csv_database/xlsx/filter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="213">
   <si>
     <t>C_Black</t>
   </si>
@@ -420,6 +420,249 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>Chuckar Partridge</t>
+  </si>
+  <si>
+    <t>Alectoris chuka</t>
+  </si>
+  <si>
+    <t>Phasianidae</t>
+  </si>
+  <si>
+    <t>Ring-necked Pheasant</t>
+  </si>
+  <si>
+    <t>Phasianus colchicus</t>
+  </si>
+  <si>
+    <t>Ruffed Grouse</t>
+  </si>
+  <si>
+    <t>Bonasa umbellus</t>
+  </si>
+  <si>
+    <t>Greater Sage-Grouse</t>
+  </si>
+  <si>
+    <t>Centrocercus urophasianus</t>
+  </si>
+  <si>
+    <t>Gunnison Sage-Grouse</t>
+  </si>
+  <si>
+    <t>Centrocercus minimus</t>
+  </si>
+  <si>
+    <t>White-Tailed Ptarmigan</t>
+  </si>
+  <si>
+    <t>Similar to great sage-grouse (male)</t>
+  </si>
+  <si>
+    <t>Similar to great sage-grouse (female)</t>
+  </si>
+  <si>
+    <t>Lagopus leucura</t>
+  </si>
+  <si>
+    <t>Dusky Grouse</t>
+  </si>
+  <si>
+    <t>Dendragapus obscurus</t>
+  </si>
+  <si>
+    <t>Sharp-Tailed Grouse</t>
+  </si>
+  <si>
+    <t>Tympanuchus phasianellus</t>
+  </si>
+  <si>
+    <t>Greater Prairie-Chicken</t>
+  </si>
+  <si>
+    <t>Tympanuchus cupido</t>
+  </si>
+  <si>
+    <t>Lesser Prairie-Chicken</t>
+  </si>
+  <si>
+    <t>Tympanuchus pallidicinctus</t>
+  </si>
+  <si>
+    <t>Similar to greater prarie-chicken (male)</t>
+  </si>
+  <si>
+    <t>Similar to greater prarie-chicken (female)</t>
+  </si>
+  <si>
+    <t>Wild Turkey</t>
+  </si>
+  <si>
+    <t>Meleagris gallopavo</t>
+  </si>
+  <si>
+    <t>Red-Throated Loon</t>
+  </si>
+  <si>
+    <t>Gavia stellata</t>
+  </si>
+  <si>
+    <t>Gaviidae</t>
+  </si>
+  <si>
+    <t>Arctic  Loon</t>
+  </si>
+  <si>
+    <t>Gavia arctica</t>
+  </si>
+  <si>
+    <t>Similar to pacific loon</t>
+  </si>
+  <si>
+    <t>Similar to arctic loon</t>
+  </si>
+  <si>
+    <t>Pacific Loon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gavia pacifica</t>
+  </si>
+  <si>
+    <t>Common Loon</t>
+  </si>
+  <si>
+    <t>Yellow-Billed Loon</t>
+  </si>
+  <si>
+    <t>Gavia adamsii</t>
+  </si>
+  <si>
+    <t>Gavia immer</t>
+  </si>
+  <si>
+    <t>Pied-Billed Grebe</t>
+  </si>
+  <si>
+    <t>Podilymbus podiceps</t>
+  </si>
+  <si>
+    <t>Podicipedidae</t>
+  </si>
+  <si>
+    <t>Horned Grebe</t>
+  </si>
+  <si>
+    <t>Podiceps auritus</t>
+  </si>
+  <si>
+    <t>Red-Necked Grebe</t>
+  </si>
+  <si>
+    <t>Podiceps grisegena</t>
+  </si>
+  <si>
+    <t>Eared Grebe</t>
+  </si>
+  <si>
+    <t>Podiceps nigricollis</t>
+  </si>
+  <si>
+    <t>Western Grebe</t>
+  </si>
+  <si>
+    <t>Aechmorphorus occidentalis</t>
+  </si>
+  <si>
+    <t>Similar to Clark's Grebe</t>
+  </si>
+  <si>
+    <t>Similar to Western Grebe</t>
+  </si>
+  <si>
+    <t>Clark's Grebe</t>
+  </si>
+  <si>
+    <t>Aechmorphorus clarkii</t>
+  </si>
+  <si>
+    <t>Wood Stork</t>
+  </si>
+  <si>
+    <t>Mycteria americana</t>
+  </si>
+  <si>
+    <t>Ciconiidae</t>
+  </si>
+  <si>
+    <t>NF_long_legs</t>
+  </si>
+  <si>
+    <t>Magnificent frigatebird</t>
+  </si>
+  <si>
+    <t>Fregata magnificens</t>
+  </si>
+  <si>
+    <t>Fregatidae</t>
+  </si>
+  <si>
+    <t>Neotropic Cormorant</t>
+  </si>
+  <si>
+    <t>Phalacrocorax brasilianus</t>
+  </si>
+  <si>
+    <t>Phalacrocoracidae</t>
+  </si>
+  <si>
+    <t>Double-Crested Cormorant</t>
+  </si>
+  <si>
+    <t>Phalacrocorax auritus</t>
+  </si>
+  <si>
+    <t>Similar to neotropic cormorant</t>
+  </si>
+  <si>
+    <t>Similar to double-crested cormorant</t>
+  </si>
+  <si>
+    <t>Anhinga, or, Snakebird</t>
+  </si>
+  <si>
+    <t>Anhinga anhinga</t>
+  </si>
+  <si>
+    <t>Anhingidae</t>
+  </si>
+  <si>
+    <t>American White Pelican</t>
+  </si>
+  <si>
+    <t>Pelecanus erythrorhynchos</t>
+  </si>
+  <si>
+    <t>Brown Pelican</t>
+  </si>
+  <si>
+    <t>Pelecanus occidentalis</t>
+  </si>
+  <si>
+    <t>Pelecanidae</t>
+  </si>
+  <si>
+    <t>American Bittern</t>
+  </si>
+  <si>
+    <t>Botaurus lentiginosus</t>
+  </si>
+  <si>
+    <t>Ardeidae</t>
   </si>
 </sst>
 </file>
@@ -477,11 +720,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,18 +1036,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
@@ -812,20 +1058,20 @@
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -878,37 +1124,40 @@
         <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -960,12 +1209,12 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>19</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="T2">
         <v>1</v>
       </c>
@@ -979,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -990,8 +1239,11 @@
       <c r="AA2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1043,12 +1295,12 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
         <v>19</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
       <c r="T3">
         <v>1</v>
       </c>
@@ -1056,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1073,8 +1325,11 @@
       <c r="AA3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1126,29 +1381,29 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>19</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1156,8 +1411,11 @@
       <c r="AA4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1209,29 +1467,29 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
         <v>19</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1239,8 +1497,11 @@
       <c r="AA5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1292,23 +1553,23 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>19</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1322,8 +1583,11 @@
       <c r="AA6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1375,12 +1639,12 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>19</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="T7">
         <v>1</v>
       </c>
@@ -1394,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1405,8 +1669,11 @@
       <c r="AA7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1458,23 +1725,23 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
         <v>19</v>
       </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1488,8 +1755,11 @@
       <c r="AA8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1541,12 +1811,12 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>19</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
       <c r="T9">
         <v>1</v>
       </c>
@@ -1560,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1571,8 +1841,11 @@
       <c r="AA9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1624,23 +1897,23 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
         <v>19</v>
       </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1654,8 +1927,11 @@
       <c r="AA10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1707,12 +1983,12 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
         <v>19</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
       <c r="T11">
         <v>1</v>
       </c>
@@ -1720,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1737,8 +2013,11 @@
       <c r="AA11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1790,12 +2069,12 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>19</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
       <c r="T12">
         <v>1</v>
       </c>
@@ -1803,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1820,8 +2099,11 @@
       <c r="AA12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1873,12 +2155,12 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
         <v>19</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
       <c r="T13">
         <v>1</v>
       </c>
@@ -1886,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -1903,8 +2185,11 @@
       <c r="AA13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1956,17 +2241,17 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
         <v>19</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1986,8 +2271,11 @@
       <c r="AA14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2039,17 +2327,17 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
         <v>19</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
       <c r="T15">
         <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2058,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2069,8 +2357,11 @@
       <c r="AA15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2122,12 +2413,12 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
         <v>19</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
       <c r="T16">
         <v>1</v>
       </c>
@@ -2138,22 +2429,25 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2205,20 +2499,20 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
         <v>19</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2227,16 +2521,19 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2288,29 +2585,29 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
         <v>19</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2318,8 +2615,11 @@
       <c r="AA18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2371,12 +2671,12 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
         <v>19</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
       <c r="T19">
         <v>1</v>
       </c>
@@ -2384,16 +2684,16 @@
         <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2401,8 +2701,11 @@
       <c r="AA19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2454,12 +2757,12 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
         <v>19</v>
       </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
       <c r="T20">
         <v>1</v>
       </c>
@@ -2467,13 +2770,13 @@
         <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2484,8 +2787,11 @@
       <c r="AA20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2537,20 +2843,20 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
         <v>19</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2559,16 +2865,19 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2620,12 +2929,12 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
         <v>19</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
       <c r="T22">
         <v>0</v>
       </c>
@@ -2650,8 +2959,11 @@
       <c r="AA22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2703,29 +3015,29 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
         <v>19</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2733,8 +3045,11 @@
       <c r="AA23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2786,23 +3101,23 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
         <v>19</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -2814,10 +3129,13 @@
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2869,12 +3187,12 @@
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
         <v>19</v>
       </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
       <c r="T25">
         <v>1</v>
       </c>
@@ -2882,25 +3200,28 @@
         <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2952,29 +3273,29 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
         <v>19</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2982,8 +3303,11 @@
       <c r="AA26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3035,12 +3359,12 @@
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
         <v>19</v>
       </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
       <c r="T27">
         <v>1</v>
       </c>
@@ -3048,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3060,13 +3384,16 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3118,20 +3445,20 @@
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
         <v>19</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
       <c r="T28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -3148,8 +3475,11 @@
       <c r="AA28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3201,12 +3531,12 @@
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
         <v>19</v>
       </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
       <c r="T29">
         <v>1</v>
       </c>
@@ -3217,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -3231,8 +3561,11 @@
       <c r="AA29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3284,12 +3617,12 @@
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
         <v>19</v>
       </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
       <c r="T30">
         <v>1</v>
       </c>
@@ -3297,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3314,8 +3647,11 @@
       <c r="AA30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3367,12 +3703,12 @@
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
         <v>128</v>
       </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
       <c r="T31">
         <v>1</v>
       </c>
@@ -3380,10 +3716,10 @@
         <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>1</v>
@@ -3392,13 +3728,16 @@
         <v>1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3450,12 +3789,12 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
         <v>128</v>
       </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
       <c r="T32">
         <v>1</v>
       </c>
@@ -3463,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -3480,8 +3819,11 @@
       <c r="AA32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3533,12 +3875,12 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
         <v>19</v>
       </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
       <c r="T33">
         <v>1</v>
       </c>
@@ -3546,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3563,8 +3905,11 @@
       <c r="AA33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3616,20 +3961,20 @@
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
         <v>19</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3646,8 +3991,11 @@
       <c r="AA34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3699,12 +4047,12 @@
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
         <v>64</v>
       </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
       <c r="T35">
         <v>1</v>
       </c>
@@ -3712,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3724,13 +4072,16 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3782,20 +4133,20 @@
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
         <v>65</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>1</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3807,13 +4158,16 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3865,38 +4219,41 @@
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
         <v>19</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>1</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3948,20 +4305,20 @@
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
         <v>19</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <v>1</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -3970,16 +4327,19 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4031,17 +4391,17 @@
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
         <v>19</v>
       </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
         <v>1</v>
@@ -4050,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -4061,8 +4421,11 @@
       <c r="AA39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4114,20 +4477,20 @@
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
         <v>19</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -4144,8 +4507,11 @@
       <c r="AA40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4197,17 +4563,17 @@
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
         <v>19</v>
       </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -4216,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4227,8 +4593,11 @@
       <c r="AA41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4280,20 +4649,20 @@
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
         <v>19</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
       <c r="T42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -4310,8 +4679,11 @@
       <c r="AA42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4363,26 +4735,26 @@
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
         <v>19</v>
       </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
       <c r="T43">
         <v>1</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43">
         <v>1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -4393,8 +4765,11 @@
       <c r="AA43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4446,20 +4821,20 @@
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
         <v>19</v>
       </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
       <c r="T44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44">
         <v>1</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4476,8 +4851,11 @@
       <c r="AA44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4529,17 +4907,17 @@
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
         <v>19</v>
       </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
       <c r="T45">
         <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4548,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4559,8 +4937,11 @@
       <c r="AA45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4612,29 +4993,29 @@
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
         <v>19</v>
       </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
       <c r="T46">
         <v>0</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -4642,8 +5023,11 @@
       <c r="AA46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4695,26 +5079,26 @@
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
         <v>19</v>
       </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
       <c r="T47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47">
         <v>1</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -4723,10 +5107,13 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4778,38 +5165,41 @@
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
         <v>19</v>
       </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
       <c r="T48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <v>1</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4861,38 +5251,41 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
         <v>19</v>
       </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4944,38 +5337,41 @@
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" t="s">
         <v>19</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
       <c r="T50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <v>1</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5027,12 +5423,12 @@
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
         <v>19</v>
       </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
       <c r="T51">
         <v>1</v>
       </c>
@@ -5040,25 +5436,28 @@
         <v>1</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5110,20 +5509,20 @@
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52" t="s">
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52" t="s">
         <v>19</v>
       </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>1</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -5140,8 +5539,11 @@
       <c r="AA52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5193,17 +5595,17 @@
       <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53" t="s">
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
         <v>19</v>
       </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
       <c r="T53">
         <v>1</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5212,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5223,8 +5625,11 @@
       <c r="AA53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5276,12 +5681,12 @@
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54" t="s">
         <v>19</v>
       </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
       <c r="T54">
         <v>1</v>
       </c>
@@ -5292,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -5306,8 +5711,11 @@
       <c r="AA54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5359,17 +5767,17 @@
       <c r="Q55">
         <v>0</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
         <v>19</v>
       </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
       <c r="T55">
         <v>1</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5389,8 +5797,11 @@
       <c r="AA55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5442,20 +5853,20 @@
       <c r="Q56">
         <v>0</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56" t="s">
         <v>19</v>
       </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
       <c r="T56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56">
         <v>1</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -5472,8 +5883,11 @@
       <c r="AA56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5525,14 +5939,14 @@
       <c r="Q57">
         <v>0</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
         <v>19</v>
       </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
       <c r="T57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -5544,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5555,8 +5969,11 @@
       <c r="AA57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5608,29 +6025,29 @@
       <c r="Q58">
         <v>0</v>
       </c>
-      <c r="R58" t="s">
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58" t="s">
         <v>19</v>
       </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -5638,8 +6055,11 @@
       <c r="AA58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5691,26 +6111,26 @@
       <c r="Q59">
         <v>0</v>
       </c>
-      <c r="R59" t="s">
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59" t="s">
         <v>19</v>
       </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
         <v>1</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -5721,8 +6141,11 @@
       <c r="AA59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5774,12 +6197,12 @@
       <c r="Q60">
         <v>0</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60" t="s">
         <v>19</v>
       </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
       <c r="T60">
         <v>1</v>
       </c>
@@ -5787,13 +6210,13 @@
         <v>1</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -5804,8 +6227,11 @@
       <c r="AA60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5857,17 +6283,17 @@
       <c r="Q61">
         <v>0</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
         <v>19</v>
       </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -5879,16 +6305,19 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5940,26 +6369,26 @@
       <c r="Q62">
         <v>0</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
         <v>19</v>
       </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
       <c r="T62">
         <v>1</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -5970,8 +6399,11 @@
       <c r="AA62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6023,17 +6455,17 @@
       <c r="Q63">
         <v>0</v>
       </c>
-      <c r="R63" t="s">
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
         <v>19</v>
       </c>
-      <c r="S63">
-        <v>1</v>
-      </c>
       <c r="T63">
         <v>1</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6042,19 +6474,22 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6106,12 +6541,12 @@
       <c r="Q64">
         <v>0</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
         <v>19</v>
       </c>
-      <c r="S64">
-        <v>1</v>
-      </c>
       <c r="T64">
         <v>1</v>
       </c>
@@ -6119,16 +6554,16 @@
         <v>1</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64">
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6136,8 +6571,11 @@
       <c r="AA64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6189,17 +6627,17 @@
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
         <v>19</v>
       </c>
-      <c r="S65">
-        <v>1</v>
-      </c>
       <c r="T65">
         <v>1</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6208,10 +6646,10 @@
         <v>0</v>
       </c>
       <c r="X65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6219,8 +6657,11 @@
       <c r="AA65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6272,29 +6713,29 @@
       <c r="Q66">
         <v>0</v>
       </c>
-      <c r="R66" t="s">
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
         <v>19</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
       <c r="T66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66">
         <v>1</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6302,8 +6743,11 @@
       <c r="AA66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6355,12 +6799,12 @@
       <c r="Q67">
         <v>1</v>
       </c>
-      <c r="R67" t="s">
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
         <v>19</v>
       </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
       <c r="T67">
         <v>1</v>
       </c>
@@ -6368,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W67">
         <v>0</v>
@@ -6385,8 +6829,11 @@
       <c r="AA67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6438,29 +6885,29 @@
       <c r="Q68">
         <v>1</v>
       </c>
-      <c r="R68" t="s">
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
         <v>19</v>
       </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6468,8 +6915,11 @@
       <c r="AA68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6521,38 +6971,41 @@
       <c r="Q69">
         <v>0</v>
       </c>
-      <c r="R69" t="s">
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69" t="s">
         <v>19</v>
       </c>
-      <c r="S69">
-        <v>1</v>
-      </c>
       <c r="T69">
         <v>1</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69">
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6604,20 +7057,20 @@
       <c r="Q70">
         <v>0</v>
       </c>
-      <c r="R70" t="s">
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
         <v>19</v>
       </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
       <c r="T70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70">
         <v>1</v>
@@ -6626,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -6634,8 +7087,11 @@
       <c r="AA70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6687,12 +7143,12 @@
       <c r="Q71">
         <v>0</v>
       </c>
-      <c r="R71" t="s">
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71" t="s">
         <v>102</v>
       </c>
-      <c r="S71">
-        <v>1</v>
-      </c>
       <c r="T71">
         <v>1</v>
       </c>
@@ -6706,19 +7162,22 @@
         <v>1</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6770,17 +7229,17 @@
       <c r="Q72">
         <v>0</v>
       </c>
-      <c r="R72" t="s">
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
         <v>102</v>
       </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72">
         <v>1</v>
@@ -6789,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -6800,8 +7259,11 @@
       <c r="AA72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6853,12 +7315,12 @@
       <c r="Q73">
         <v>0</v>
       </c>
-      <c r="R73" t="s">
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
         <v>105</v>
       </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
       <c r="T73">
         <v>1</v>
       </c>
@@ -6866,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W73">
         <v>0</v>
@@ -6878,13 +7340,16 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6936,12 +7401,12 @@
       <c r="Q74">
         <v>0</v>
       </c>
-      <c r="R74" t="s">
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74" t="s">
         <v>19</v>
       </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
       <c r="T74">
         <v>1</v>
       </c>
@@ -6949,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W74">
         <v>0</v>
@@ -6966,8 +7431,11 @@
       <c r="AA74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7019,12 +7487,12 @@
       <c r="Q75">
         <v>0</v>
       </c>
-      <c r="R75" t="s">
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75" t="s">
         <v>19</v>
       </c>
-      <c r="S75">
-        <v>1</v>
-      </c>
       <c r="T75">
         <v>1</v>
       </c>
@@ -7032,13 +7500,13 @@
         <v>1</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -7049,8 +7517,11 @@
       <c r="AA75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7102,12 +7573,12 @@
       <c r="Q76">
         <v>1</v>
       </c>
-      <c r="R76" t="s">
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76" t="s">
         <v>19</v>
       </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
       <c r="T76">
         <v>1</v>
       </c>
@@ -7121,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="X76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -7132,8 +7603,11 @@
       <c r="AA76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7185,12 +7659,12 @@
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77" t="s">
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77" t="s">
         <v>19</v>
       </c>
-      <c r="S77">
-        <v>1</v>
-      </c>
       <c r="T77">
         <v>1</v>
       </c>
@@ -7198,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77">
         <v>0</v>
@@ -7213,6 +7687,3707 @@
         <v>0</v>
       </c>
       <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78">
+        <v>32</v>
+      </c>
+      <c r="G78">
+        <v>38</v>
+      </c>
+      <c r="H78">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="I78">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>19</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>70</v>
+      </c>
+      <c r="H79">
+        <v>0.5</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>56</v>
+      </c>
+      <c r="K79">
+        <v>86</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79" t="s">
+        <v>19</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>70</v>
+      </c>
+      <c r="H80">
+        <v>0.5</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>56</v>
+      </c>
+      <c r="K80">
+        <v>86</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80" t="s">
+        <v>19</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" t="s">
+        <v>134</v>
+      </c>
+      <c r="F81">
+        <v>40</v>
+      </c>
+      <c r="G81">
+        <v>45</v>
+      </c>
+      <c r="H81">
+        <v>0.45</v>
+      </c>
+      <c r="I81">
+        <v>0.75</v>
+      </c>
+      <c r="J81">
+        <v>50</v>
+      </c>
+      <c r="K81">
+        <v>64</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81" t="s">
+        <v>19</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82">
+        <v>56</v>
+      </c>
+      <c r="G82">
+        <v>75</v>
+      </c>
+      <c r="H82">
+        <v>1.4</v>
+      </c>
+      <c r="I82">
+        <v>2.9</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82" t="s">
+        <v>19</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" t="s">
+        <v>134</v>
+      </c>
+      <c r="F83">
+        <v>56</v>
+      </c>
+      <c r="G83">
+        <v>75</v>
+      </c>
+      <c r="H83">
+        <v>1.4</v>
+      </c>
+      <c r="I83">
+        <v>2.9</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83" t="s">
+        <v>19</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84">
+        <v>46</v>
+      </c>
+      <c r="G84">
+        <v>56</v>
+      </c>
+      <c r="H84">
+        <v>0.99</v>
+      </c>
+      <c r="I84">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84" t="s">
+        <v>144</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85">
+        <v>56</v>
+      </c>
+      <c r="G85">
+        <v>75</v>
+      </c>
+      <c r="H85">
+        <v>1.4</v>
+      </c>
+      <c r="I85">
+        <v>2.9</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85" t="s">
+        <v>145</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" t="s">
+        <v>134</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>31</v>
+      </c>
+      <c r="H86">
+        <v>0.33</v>
+      </c>
+      <c r="I86">
+        <v>0.48</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86" t="s">
+        <v>19</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" t="s">
+        <v>134</v>
+      </c>
+      <c r="F87">
+        <v>30</v>
+      </c>
+      <c r="G87">
+        <v>31</v>
+      </c>
+      <c r="H87">
+        <v>0.33</v>
+      </c>
+      <c r="I87">
+        <v>0.48</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87" t="s">
+        <v>19</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88">
+        <v>40</v>
+      </c>
+      <c r="G88">
+        <v>50</v>
+      </c>
+      <c r="H88">
+        <v>0.75</v>
+      </c>
+      <c r="I88">
+        <v>1.3</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88" t="s">
+        <v>19</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89">
+        <v>40</v>
+      </c>
+      <c r="G89">
+        <v>50</v>
+      </c>
+      <c r="H89">
+        <v>0.75</v>
+      </c>
+      <c r="I89">
+        <v>1.3</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89" t="s">
+        <v>19</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" t="s">
+        <v>150</v>
+      </c>
+      <c r="E90" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90">
+        <v>41</v>
+      </c>
+      <c r="G90">
+        <v>47</v>
+      </c>
+      <c r="H90">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I90">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90" t="s">
+        <v>19</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" t="s">
+        <v>134</v>
+      </c>
+      <c r="F91">
+        <v>41</v>
+      </c>
+      <c r="G91">
+        <v>47</v>
+      </c>
+      <c r="H91">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I91">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91" t="s">
+        <v>19</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92">
+        <v>42</v>
+      </c>
+      <c r="G92">
+        <v>44</v>
+      </c>
+      <c r="H92">
+        <v>0.7</v>
+      </c>
+      <c r="I92">
+        <v>1.2</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92" t="s">
+        <v>19</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>1</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>1</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" t="s">
+        <v>134</v>
+      </c>
+      <c r="F93">
+        <v>42</v>
+      </c>
+      <c r="G93">
+        <v>44</v>
+      </c>
+      <c r="H93">
+        <v>0.7</v>
+      </c>
+      <c r="I93">
+        <v>1.2</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93" t="s">
+        <v>19</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" t="s">
+        <v>134</v>
+      </c>
+      <c r="F94">
+        <v>38</v>
+      </c>
+      <c r="G94">
+        <v>54</v>
+      </c>
+      <c r="H94">
+        <v>0.628</v>
+      </c>
+      <c r="I94">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94" t="s">
+        <v>155</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>1</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95">
+        <v>38</v>
+      </c>
+      <c r="G95">
+        <v>54</v>
+      </c>
+      <c r="H95">
+        <v>0.628</v>
+      </c>
+      <c r="I95">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95" t="s">
+        <v>156</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <v>1</v>
+      </c>
+      <c r="V95">
+        <v>1</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F96">
+        <v>110</v>
+      </c>
+      <c r="G96">
+        <v>115</v>
+      </c>
+      <c r="H96">
+        <v>2.5</v>
+      </c>
+      <c r="I96">
+        <v>10.8</v>
+      </c>
+      <c r="J96" s="3">
+        <v>125</v>
+      </c>
+      <c r="K96" s="3">
+        <v>144</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96" t="s">
+        <v>19</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="V96">
+        <v>1</v>
+      </c>
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96">
+        <v>1</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97">
+        <v>110</v>
+      </c>
+      <c r="G97">
+        <v>115</v>
+      </c>
+      <c r="H97">
+        <v>2.5</v>
+      </c>
+      <c r="I97">
+        <v>10.8</v>
+      </c>
+      <c r="J97" s="3">
+        <v>125</v>
+      </c>
+      <c r="K97" s="3">
+        <v>144</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97" t="s">
+        <v>19</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>1</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>159</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98">
+        <v>53</v>
+      </c>
+      <c r="G98">
+        <v>69</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>2.7</v>
+      </c>
+      <c r="J98" s="3">
+        <v>100</v>
+      </c>
+      <c r="K98" s="3">
+        <v>120</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98" t="s">
+        <v>19</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>1</v>
+      </c>
+      <c r="X98">
+        <v>1</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99" t="s">
+        <v>161</v>
+      </c>
+      <c r="F99">
+        <v>28</v>
+      </c>
+      <c r="G99">
+        <v>77</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>3.4</v>
+      </c>
+      <c r="J99" s="3">
+        <v>100</v>
+      </c>
+      <c r="K99" s="3">
+        <v>130</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99" t="s">
+        <v>164</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>1</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100" t="s">
+        <v>161</v>
+      </c>
+      <c r="F100">
+        <v>58</v>
+      </c>
+      <c r="G100">
+        <v>74</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>2.5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>110</v>
+      </c>
+      <c r="K100" s="3">
+        <v>128</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100" t="s">
+        <v>165</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>1</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>172</v>
+      </c>
+      <c r="E101" t="s">
+        <v>161</v>
+      </c>
+      <c r="F101">
+        <v>66</v>
+      </c>
+      <c r="G101">
+        <v>91</v>
+      </c>
+      <c r="H101">
+        <v>2.5</v>
+      </c>
+      <c r="I101">
+        <v>6.1</v>
+      </c>
+      <c r="J101" s="3">
+        <v>104</v>
+      </c>
+      <c r="K101" s="3">
+        <v>131</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101" t="s">
+        <v>19</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" t="s">
+        <v>171</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102">
+        <v>76</v>
+      </c>
+      <c r="G102">
+        <v>97</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>6.4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>135</v>
+      </c>
+      <c r="K102" s="3">
+        <v>160</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102" t="s">
+        <v>19</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>1</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>174</v>
+      </c>
+      <c r="E103" t="s">
+        <v>175</v>
+      </c>
+      <c r="F103">
+        <v>30</v>
+      </c>
+      <c r="G103">
+        <v>38</v>
+      </c>
+      <c r="H103">
+        <v>0.253</v>
+      </c>
+      <c r="I103">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="J103" s="3">
+        <v>45</v>
+      </c>
+      <c r="K103" s="3">
+        <v>62</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103" t="s">
+        <v>19</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="V103">
+        <v>1</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" t="s">
+        <v>177</v>
+      </c>
+      <c r="E104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F104">
+        <v>31</v>
+      </c>
+      <c r="G104">
+        <v>38</v>
+      </c>
+      <c r="H104">
+        <v>0.3</v>
+      </c>
+      <c r="I104">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J104" s="3">
+        <v>55</v>
+      </c>
+      <c r="K104" s="3">
+        <v>64</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104" t="s">
+        <v>19</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+      <c r="W104">
+        <v>1</v>
+      </c>
+      <c r="X104">
+        <v>1</v>
+      </c>
+      <c r="Y104">
+        <v>1</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105" t="s">
+        <v>175</v>
+      </c>
+      <c r="F105">
+        <v>31</v>
+      </c>
+      <c r="G105">
+        <v>38</v>
+      </c>
+      <c r="H105">
+        <v>0.3</v>
+      </c>
+      <c r="I105">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J105" s="3">
+        <v>55</v>
+      </c>
+      <c r="K105" s="3">
+        <v>64</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105" t="s">
+        <v>19</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>1</v>
+      </c>
+      <c r="X105">
+        <v>1</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" t="s">
+        <v>179</v>
+      </c>
+      <c r="E106" t="s">
+        <v>175</v>
+      </c>
+      <c r="F106">
+        <v>46</v>
+      </c>
+      <c r="G106">
+        <v>56</v>
+      </c>
+      <c r="H106">
+        <v>0.8</v>
+      </c>
+      <c r="I106">
+        <v>1.6</v>
+      </c>
+      <c r="J106" s="3">
+        <v>61</v>
+      </c>
+      <c r="K106" s="3">
+        <v>88</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106" t="s">
+        <v>19</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>1</v>
+      </c>
+      <c r="W106">
+        <v>1</v>
+      </c>
+      <c r="X106">
+        <v>1</v>
+      </c>
+      <c r="Y106">
+        <v>1</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107" t="s">
+        <v>175</v>
+      </c>
+      <c r="F107">
+        <v>46</v>
+      </c>
+      <c r="G107">
+        <v>56</v>
+      </c>
+      <c r="H107">
+        <v>0.8</v>
+      </c>
+      <c r="I107">
+        <v>1.6</v>
+      </c>
+      <c r="J107" s="3">
+        <v>61</v>
+      </c>
+      <c r="K107" s="3">
+        <v>88</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107" t="s">
+        <v>19</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>1</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>1</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" t="s">
+        <v>175</v>
+      </c>
+      <c r="F108">
+        <v>30</v>
+      </c>
+      <c r="G108">
+        <v>35</v>
+      </c>
+      <c r="H108">
+        <v>0.2</v>
+      </c>
+      <c r="I108">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J108" s="3">
+        <v>52</v>
+      </c>
+      <c r="K108" s="3">
+        <v>55</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108" t="s">
+        <v>19</v>
+      </c>
+      <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>1</v>
+      </c>
+      <c r="W108">
+        <v>1</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>1</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" t="s">
+        <v>181</v>
+      </c>
+      <c r="E109" t="s">
+        <v>175</v>
+      </c>
+      <c r="F109">
+        <v>30</v>
+      </c>
+      <c r="G109">
+        <v>35</v>
+      </c>
+      <c r="H109">
+        <v>0.2</v>
+      </c>
+      <c r="I109">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J109" s="3">
+        <v>52</v>
+      </c>
+      <c r="K109" s="3">
+        <v>55</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109" t="s">
+        <v>19</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>183</v>
+      </c>
+      <c r="E110" t="s">
+        <v>175</v>
+      </c>
+      <c r="F110">
+        <v>55</v>
+      </c>
+      <c r="G110">
+        <v>75</v>
+      </c>
+      <c r="H110">
+        <v>0.8</v>
+      </c>
+      <c r="I110">
+        <v>1.8</v>
+      </c>
+      <c r="J110" s="3">
+        <v>79</v>
+      </c>
+      <c r="K110" s="3">
+        <v>86</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110" t="s">
+        <v>184</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
+      </c>
+      <c r="U110">
+        <v>1</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>1</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>1</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" t="s">
+        <v>175</v>
+      </c>
+      <c r="F111">
+        <v>55</v>
+      </c>
+      <c r="G111">
+        <v>75</v>
+      </c>
+      <c r="H111">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I111">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="J111" s="3">
+        <v>81</v>
+      </c>
+      <c r="K111" s="3">
+        <v>82</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111" t="s">
+        <v>185</v>
+      </c>
+      <c r="T111">
+        <v>1</v>
+      </c>
+      <c r="U111">
+        <v>1</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>1</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>1</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>189</v>
+      </c>
+      <c r="E112" t="s">
+        <v>190</v>
+      </c>
+      <c r="F112">
+        <v>85</v>
+      </c>
+      <c r="G112">
+        <v>115</v>
+      </c>
+      <c r="H112">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I112">
+        <v>2.64</v>
+      </c>
+      <c r="J112" s="3">
+        <v>150</v>
+      </c>
+      <c r="K112" s="3">
+        <v>175</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112" t="s">
+        <v>19</v>
+      </c>
+      <c r="T112">
+        <v>1</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>1</v>
+      </c>
+      <c r="X112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" t="s">
+        <v>193</v>
+      </c>
+      <c r="E113" t="s">
+        <v>194</v>
+      </c>
+      <c r="F113">
+        <v>89</v>
+      </c>
+      <c r="G113">
+        <v>114</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1.9</v>
+      </c>
+      <c r="J113" s="3">
+        <v>217</v>
+      </c>
+      <c r="K113" s="3">
+        <v>224</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113" t="s">
+        <v>19</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>193</v>
+      </c>
+      <c r="E114" t="s">
+        <v>194</v>
+      </c>
+      <c r="F114">
+        <v>89</v>
+      </c>
+      <c r="G114">
+        <v>114</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1.9</v>
+      </c>
+      <c r="J114" s="3">
+        <v>217</v>
+      </c>
+      <c r="K114" s="3">
+        <v>224</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114" t="s">
+        <v>19</v>
+      </c>
+      <c r="T114">
+        <v>1</v>
+      </c>
+      <c r="U114">
+        <v>1</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>196</v>
+      </c>
+      <c r="E115" t="s">
+        <v>197</v>
+      </c>
+      <c r="F115">
+        <v>60</v>
+      </c>
+      <c r="G115">
+        <v>62</v>
+      </c>
+      <c r="H115">
+        <v>1.07</v>
+      </c>
+      <c r="I115">
+        <v>1.5</v>
+      </c>
+      <c r="J115" s="3">
+        <v>101</v>
+      </c>
+      <c r="K115" s="3">
+        <v>103</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115" t="s">
+        <v>201</v>
+      </c>
+      <c r="T115">
+        <v>1</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="V115">
+        <v>1</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>1</v>
+      </c>
+      <c r="Z115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>198</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E116" t="s">
+        <v>197</v>
+      </c>
+      <c r="F116">
+        <v>70</v>
+      </c>
+      <c r="G116">
+        <v>90</v>
+      </c>
+      <c r="H116">
+        <v>1.2</v>
+      </c>
+      <c r="I116">
+        <v>2.5</v>
+      </c>
+      <c r="J116" s="3">
+        <v>114</v>
+      </c>
+      <c r="K116" s="3">
+        <v>123</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116" t="s">
+        <v>200</v>
+      </c>
+      <c r="T116">
+        <v>1</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>1</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>202</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>203</v>
+      </c>
+      <c r="E117" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117">
+        <v>75</v>
+      </c>
+      <c r="G117">
+        <v>95</v>
+      </c>
+      <c r="H117">
+        <v>1.325</v>
+      </c>
+      <c r="I117">
+        <v>1.35</v>
+      </c>
+      <c r="J117" s="3">
+        <v>108</v>
+      </c>
+      <c r="K117" s="3">
+        <v>110</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117" t="s">
+        <v>19</v>
+      </c>
+      <c r="T117">
+        <v>1</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="V117">
+        <v>1</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>1</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>1</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>206</v>
+      </c>
+      <c r="E118" t="s">
+        <v>209</v>
+      </c>
+      <c r="F118">
+        <v>127</v>
+      </c>
+      <c r="G118">
+        <v>165</v>
+      </c>
+      <c r="H118">
+        <v>4.5</v>
+      </c>
+      <c r="I118">
+        <v>9</v>
+      </c>
+      <c r="J118" s="3">
+        <v>244</v>
+      </c>
+      <c r="K118" s="3">
+        <v>290</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118" t="s">
+        <v>19</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>1</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>1</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>208</v>
+      </c>
+      <c r="E119" t="s">
+        <v>209</v>
+      </c>
+      <c r="F119">
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <v>137</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>5</v>
+      </c>
+      <c r="J119" s="3">
+        <v>199</v>
+      </c>
+      <c r="K119" s="3">
+        <v>201</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119" t="s">
+        <v>19</v>
+      </c>
+      <c r="T119">
+        <v>1</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="V119">
+        <v>1</v>
+      </c>
+      <c r="W119">
+        <v>1</v>
+      </c>
+      <c r="X119">
+        <v>1</v>
+      </c>
+      <c r="Y119">
+        <v>1</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>211</v>
+      </c>
+      <c r="E120" t="s">
+        <v>212</v>
+      </c>
+      <c r="F120">
+        <v>60</v>
+      </c>
+      <c r="G120">
+        <v>85</v>
+      </c>
+      <c r="H120">
+        <v>0.37</v>
+      </c>
+      <c r="I120">
+        <v>0.5</v>
+      </c>
+      <c r="J120" s="3">
+        <v>91</v>
+      </c>
+      <c r="K120" s="3">
+        <v>93</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120" t="s">
+        <v>19</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="V120">
+        <v>1</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>1</v>
+      </c>
+      <c r="Y120">
+        <v>1</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
         <v>0</v>
       </c>
     </row>

--- a/csv_database/xlsx/filter.xlsx
+++ b/csv_database/xlsx/filter.xlsx
@@ -1039,8 +1039,8 @@
   <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/csv_database/xlsx/filter.xlsx
+++ b/csv_database/xlsx/filter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="354">
   <si>
     <t>C_Black</t>
   </si>
@@ -663,6 +663,429 @@
   </si>
   <si>
     <t>Ardeidae</t>
+  </si>
+  <si>
+    <t>Least Bittern</t>
+  </si>
+  <si>
+    <t>Ixobrychus exilis</t>
+  </si>
+  <si>
+    <t>Greater Blue Heron</t>
+  </si>
+  <si>
+    <t>Ardea herodias</t>
+  </si>
+  <si>
+    <t>Great Egret</t>
+  </si>
+  <si>
+    <t>Ardea alba</t>
+  </si>
+  <si>
+    <t>Snowy Egret</t>
+  </si>
+  <si>
+    <t>Egretta thula</t>
+  </si>
+  <si>
+    <t>Similar to Great Egret</t>
+  </si>
+  <si>
+    <t>Similar to Snowy Egret</t>
+  </si>
+  <si>
+    <t>Little Blue Heron</t>
+  </si>
+  <si>
+    <t>Egretta caerulea</t>
+  </si>
+  <si>
+    <t>Tricolored Heron</t>
+  </si>
+  <si>
+    <t>Egretta tricolor</t>
+  </si>
+  <si>
+    <t>Reddish Egret</t>
+  </si>
+  <si>
+    <t>Egretta rufescens</t>
+  </si>
+  <si>
+    <t>Reddish Egret (White Morph)</t>
+  </si>
+  <si>
+    <t>Cattle Egret</t>
+  </si>
+  <si>
+    <t>Bubulcus ibis</t>
+  </si>
+  <si>
+    <t>Green Heron</t>
+  </si>
+  <si>
+    <t>Butorides virescens</t>
+  </si>
+  <si>
+    <t>Black-Crowned Night Heron</t>
+  </si>
+  <si>
+    <t>Nycticorax nycticorax</t>
+  </si>
+  <si>
+    <t>Yellow-Crowned night Heron</t>
+  </si>
+  <si>
+    <t>Nyctanassa violacea</t>
+  </si>
+  <si>
+    <t>Threskiornithidae</t>
+  </si>
+  <si>
+    <t>Eudocimus albus</t>
+  </si>
+  <si>
+    <t>American White Ibis</t>
+  </si>
+  <si>
+    <t>Glossy Ibis</t>
+  </si>
+  <si>
+    <t>Plegadis falcinellus</t>
+  </si>
+  <si>
+    <t>White-Faced Ibis</t>
+  </si>
+  <si>
+    <t>Plegadis chihi</t>
+  </si>
+  <si>
+    <t>Similar to White-Faced ibis</t>
+  </si>
+  <si>
+    <t>Similar to Glossy Ibis</t>
+  </si>
+  <si>
+    <t>Roseate Spoonbill</t>
+  </si>
+  <si>
+    <t>Platalea ajaja</t>
+  </si>
+  <si>
+    <t>Black Vulture</t>
+  </si>
+  <si>
+    <t>Coragyps atratus</t>
+  </si>
+  <si>
+    <t>Cathartidae</t>
+  </si>
+  <si>
+    <t>Turkey Vulture</t>
+  </si>
+  <si>
+    <t>Cathartes aura</t>
+  </si>
+  <si>
+    <t>Osprey</t>
+  </si>
+  <si>
+    <t>Pandion haliaetus</t>
+  </si>
+  <si>
+    <t>Pandionidae</t>
+  </si>
+  <si>
+    <t>Accipitridae</t>
+  </si>
+  <si>
+    <t>Swallow-Tailed Kite</t>
+  </si>
+  <si>
+    <t>Elanoides forficatus</t>
+  </si>
+  <si>
+    <t>Mississippi Kite</t>
+  </si>
+  <si>
+    <t>Ictinia mississippiensis</t>
+  </si>
+  <si>
+    <t>Bald Eagle</t>
+  </si>
+  <si>
+    <t>Haliaeetus leucocephalus</t>
+  </si>
+  <si>
+    <t>Circus cyaneus</t>
+  </si>
+  <si>
+    <t>Northern Harrier</t>
+  </si>
+  <si>
+    <t>Sharp-Shinned Hawk</t>
+  </si>
+  <si>
+    <t>Accipiter striatus</t>
+  </si>
+  <si>
+    <t>Cooper's Hawk</t>
+  </si>
+  <si>
+    <t>Accipiter cooperii</t>
+  </si>
+  <si>
+    <t>Northern Goshawk</t>
+  </si>
+  <si>
+    <t>Accipiter gentilis</t>
+  </si>
+  <si>
+    <t>Common Black Hawk</t>
+  </si>
+  <si>
+    <t>Buteogallus anthracinus</t>
+  </si>
+  <si>
+    <t>Harris' Hawk</t>
+  </si>
+  <si>
+    <t>Parabuteo unicinctus</t>
+  </si>
+  <si>
+    <t>Red-Shouldered Hawk</t>
+  </si>
+  <si>
+    <t>Buteo lineatus</t>
+  </si>
+  <si>
+    <t>Buteo platypterus</t>
+  </si>
+  <si>
+    <t>Broad-Winged Hawk</t>
+  </si>
+  <si>
+    <t>Sawinson's Hawk</t>
+  </si>
+  <si>
+    <t>Buteo swainsoni</t>
+  </si>
+  <si>
+    <t>Zone-Tailed Hawk</t>
+  </si>
+  <si>
+    <t>Buteo albonotatus</t>
+  </si>
+  <si>
+    <t>Red-Tailed Hawk</t>
+  </si>
+  <si>
+    <t>Buteo jamaicensis</t>
+  </si>
+  <si>
+    <t>Ferruginous Hawk</t>
+  </si>
+  <si>
+    <t>Buteo regalis</t>
+  </si>
+  <si>
+    <t>Rough-Legged Hawk</t>
+  </si>
+  <si>
+    <t>Buteo lagopus</t>
+  </si>
+  <si>
+    <t>Golden Eagle</t>
+  </si>
+  <si>
+    <t>Aquila chrysaetos</t>
+  </si>
+  <si>
+    <t>Crested Caracara</t>
+  </si>
+  <si>
+    <t>Caracara cheriway</t>
+  </si>
+  <si>
+    <t>Falconidae</t>
+  </si>
+  <si>
+    <t>American Kestrel</t>
+  </si>
+  <si>
+    <t>Falco sparverius</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>Falco columbarius</t>
+  </si>
+  <si>
+    <t>Gyrfalcon</t>
+  </si>
+  <si>
+    <t>Falco rusticolus</t>
+  </si>
+  <si>
+    <t>Peregrine Falcon</t>
+  </si>
+  <si>
+    <t>Falco peregrinus</t>
+  </si>
+  <si>
+    <t>Prairie Falcon</t>
+  </si>
+  <si>
+    <t>Falco mexicanus</t>
+  </si>
+  <si>
+    <t>Yellow Rail</t>
+  </si>
+  <si>
+    <t>Coturnicops noveboracensis</t>
+  </si>
+  <si>
+    <t>Rallidae</t>
+  </si>
+  <si>
+    <t>Black Rail</t>
+  </si>
+  <si>
+    <t>Laterallus jamaicensis</t>
+  </si>
+  <si>
+    <t>King Rail</t>
+  </si>
+  <si>
+    <t>Rallus elegans</t>
+  </si>
+  <si>
+    <t>Virginia Rail</t>
+  </si>
+  <si>
+    <t>Rallus limicola</t>
+  </si>
+  <si>
+    <t>Sora</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porzana carolina</t>
+  </si>
+  <si>
+    <t>Purple Gallinule</t>
+  </si>
+  <si>
+    <t>Porphyrio martinica</t>
+  </si>
+  <si>
+    <t>Common Gallinule</t>
+  </si>
+  <si>
+    <t>Gallinula galeata</t>
+  </si>
+  <si>
+    <t>American Coot</t>
+  </si>
+  <si>
+    <t>Fulica americana</t>
+  </si>
+  <si>
+    <t>Sandhill Crane</t>
+  </si>
+  <si>
+    <t>Grus canadensis</t>
+  </si>
+  <si>
+    <t>Gruidae</t>
+  </si>
+  <si>
+    <t>Whooping Crane</t>
+  </si>
+  <si>
+    <t>Grus americana</t>
+  </si>
+  <si>
+    <t>Black-Necked Stilt</t>
+  </si>
+  <si>
+    <t>Himantopus mexicanus</t>
+  </si>
+  <si>
+    <t>Recurvirostridae</t>
+  </si>
+  <si>
+    <t>American Avocet</t>
+  </si>
+  <si>
+    <t>Recurvirostra americana</t>
+  </si>
+  <si>
+    <t>Black-Bellied Plover</t>
+  </si>
+  <si>
+    <t>Pluvialis squatarola</t>
+  </si>
+  <si>
+    <t>Charadriidae</t>
+  </si>
+  <si>
+    <t>American Golden-Plover</t>
+  </si>
+  <si>
+    <t>Pluvialis dominica</t>
+  </si>
+  <si>
+    <t>Similar to Black-Bellied Plover</t>
+  </si>
+  <si>
+    <t>Similar to Golden-Plover</t>
+  </si>
+  <si>
+    <t>Snowy Plover</t>
+  </si>
+  <si>
+    <t>Charadrius nivosus</t>
+  </si>
+  <si>
+    <t>Semipalmated plover</t>
+  </si>
+  <si>
+    <t>Charadrius semipalmatus</t>
+  </si>
+  <si>
+    <t>Piping Plover</t>
+  </si>
+  <si>
+    <t>Charadrius melodus</t>
+  </si>
+  <si>
+    <t>Killdeer</t>
+  </si>
+  <si>
+    <t>Charadrius vociferus</t>
+  </si>
+  <si>
+    <t>Mountain Plover</t>
+  </si>
+  <si>
+    <t>Charadrius montanus</t>
+  </si>
+  <si>
+    <t>Spotted Sandpiper</t>
+  </si>
+  <si>
+    <t>Actitis macularia</t>
+  </si>
+  <si>
+    <t>Scolopacidae</t>
+  </si>
+  <si>
+    <t>Solitary Sandpiper</t>
+  </si>
+  <si>
+    <t>Tringa solitaria</t>
   </si>
 </sst>
 </file>
@@ -1036,11 +1459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11391,6 +11814,5424 @@
         <v>0</v>
       </c>
     </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>214</v>
+      </c>
+      <c r="E121" t="s">
+        <v>212</v>
+      </c>
+      <c r="F121">
+        <v>28</v>
+      </c>
+      <c r="G121">
+        <v>36</v>
+      </c>
+      <c r="H121">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I121">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="J121" s="3">
+        <v>41</v>
+      </c>
+      <c r="K121" s="3">
+        <v>46</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121" t="s">
+        <v>19</v>
+      </c>
+      <c r="T121">
+        <v>1</v>
+      </c>
+      <c r="U121">
+        <v>1</v>
+      </c>
+      <c r="V121">
+        <v>1</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>1</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>215</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>216</v>
+      </c>
+      <c r="E122" t="s">
+        <v>212</v>
+      </c>
+      <c r="F122">
+        <v>97</v>
+      </c>
+      <c r="G122">
+        <v>137</v>
+      </c>
+      <c r="H122">
+        <v>2.1</v>
+      </c>
+      <c r="I122">
+        <v>2.5</v>
+      </c>
+      <c r="J122" s="3">
+        <v>167</v>
+      </c>
+      <c r="K122" s="3">
+        <v>201</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122" t="s">
+        <v>19</v>
+      </c>
+      <c r="T122">
+        <v>1</v>
+      </c>
+      <c r="U122">
+        <v>1</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>1</v>
+      </c>
+      <c r="Y122">
+        <v>1</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>217</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123" t="s">
+        <v>212</v>
+      </c>
+      <c r="F123">
+        <v>94</v>
+      </c>
+      <c r="G123">
+        <v>104</v>
+      </c>
+      <c r="H123">
+        <v>0.99</v>
+      </c>
+      <c r="I123">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J123" s="3">
+        <v>131</v>
+      </c>
+      <c r="K123" s="3">
+        <v>145</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123" t="s">
+        <v>222</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>1</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>220</v>
+      </c>
+      <c r="E124" t="s">
+        <v>212</v>
+      </c>
+      <c r="F124">
+        <v>56</v>
+      </c>
+      <c r="G124">
+        <v>66</v>
+      </c>
+      <c r="H124">
+        <v>0.36</v>
+      </c>
+      <c r="I124">
+        <v>0.38</v>
+      </c>
+      <c r="J124" s="3">
+        <v>99</v>
+      </c>
+      <c r="K124" s="3">
+        <v>101</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124" t="s">
+        <v>221</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>1</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>224</v>
+      </c>
+      <c r="E125" t="s">
+        <v>212</v>
+      </c>
+      <c r="F125">
+        <v>56</v>
+      </c>
+      <c r="G125">
+        <v>74</v>
+      </c>
+      <c r="H125">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="I125">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="J125" s="3">
+        <v>100</v>
+      </c>
+      <c r="K125" s="3">
+        <v>105</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
+      <c r="S125" t="s">
+        <v>19</v>
+      </c>
+      <c r="T125">
+        <v>1</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>1</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>225</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>226</v>
+      </c>
+      <c r="E126" t="s">
+        <v>212</v>
+      </c>
+      <c r="F126">
+        <v>60</v>
+      </c>
+      <c r="G126">
+        <v>70</v>
+      </c>
+      <c r="H126">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="I126">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J126" s="3">
+        <v>94</v>
+      </c>
+      <c r="K126" s="3">
+        <v>96</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126" t="s">
+        <v>19</v>
+      </c>
+      <c r="T126">
+        <v>1</v>
+      </c>
+      <c r="U126">
+        <v>1</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>1</v>
+      </c>
+      <c r="X126">
+        <v>1</v>
+      </c>
+      <c r="Y126">
+        <v>1</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>228</v>
+      </c>
+      <c r="E127" t="s">
+        <v>212</v>
+      </c>
+      <c r="F127">
+        <v>70</v>
+      </c>
+      <c r="G127">
+        <v>80</v>
+      </c>
+      <c r="H127">
+        <v>0.7</v>
+      </c>
+      <c r="I127">
+        <v>0.85</v>
+      </c>
+      <c r="J127" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K127" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127" t="s">
+        <v>19</v>
+      </c>
+      <c r="T127">
+        <v>1</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>1</v>
+      </c>
+      <c r="W127">
+        <v>1</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" t="s">
+        <v>167</v>
+      </c>
+      <c r="D128" t="s">
+        <v>228</v>
+      </c>
+      <c r="E128" t="s">
+        <v>212</v>
+      </c>
+      <c r="F128">
+        <v>70</v>
+      </c>
+      <c r="G128">
+        <v>80</v>
+      </c>
+      <c r="H128">
+        <v>0.7</v>
+      </c>
+      <c r="I128">
+        <v>0.85</v>
+      </c>
+      <c r="J128" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128" t="s">
+        <v>19</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>1</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>1</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>230</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>231</v>
+      </c>
+      <c r="E129" t="s">
+        <v>212</v>
+      </c>
+      <c r="F129">
+        <v>46</v>
+      </c>
+      <c r="G129">
+        <v>56</v>
+      </c>
+      <c r="H129">
+        <v>0.27</v>
+      </c>
+      <c r="I129">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J129" s="3">
+        <v>88</v>
+      </c>
+      <c r="K129" s="3">
+        <v>95</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129" t="s">
+        <v>19</v>
+      </c>
+      <c r="T129">
+        <v>1</v>
+      </c>
+      <c r="U129">
+        <v>1</v>
+      </c>
+      <c r="V129">
+        <v>1</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>1</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" t="s">
+        <v>167</v>
+      </c>
+      <c r="D130" t="s">
+        <v>233</v>
+      </c>
+      <c r="E130" t="s">
+        <v>212</v>
+      </c>
+      <c r="F130">
+        <v>41</v>
+      </c>
+      <c r="G130">
+        <v>46</v>
+      </c>
+      <c r="H130">
+        <v>0.23</v>
+      </c>
+      <c r="I130">
+        <v>0.25</v>
+      </c>
+      <c r="J130" s="3">
+        <v>64</v>
+      </c>
+      <c r="K130" s="3">
+        <v>68</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130" t="s">
+        <v>19</v>
+      </c>
+      <c r="T130">
+        <v>1</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="V130">
+        <v>1</v>
+      </c>
+      <c r="W130">
+        <v>1</v>
+      </c>
+      <c r="X130">
+        <v>1</v>
+      </c>
+      <c r="Y130">
+        <v>1</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>234</v>
+      </c>
+      <c r="C131" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" t="s">
+        <v>235</v>
+      </c>
+      <c r="E131" t="s">
+        <v>212</v>
+      </c>
+      <c r="F131">
+        <v>56</v>
+      </c>
+      <c r="G131">
+        <v>66</v>
+      </c>
+      <c r="H131">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="I131">
+        <v>1.014</v>
+      </c>
+      <c r="J131" s="3">
+        <v>115</v>
+      </c>
+      <c r="K131" s="3">
+        <v>118</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131" t="s">
+        <v>19</v>
+      </c>
+      <c r="T131">
+        <v>1</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>1</v>
+      </c>
+      <c r="X131">
+        <v>1</v>
+      </c>
+      <c r="Y131">
+        <v>1</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>236</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>237</v>
+      </c>
+      <c r="E132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F132">
+        <v>55</v>
+      </c>
+      <c r="G132">
+        <v>70</v>
+      </c>
+      <c r="H132">
+        <v>0.65</v>
+      </c>
+      <c r="I132">
+        <v>0.8</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
+        <v>1</v>
+      </c>
+      <c r="S132" t="s">
+        <v>19</v>
+      </c>
+      <c r="T132">
+        <v>1</v>
+      </c>
+      <c r="U132">
+        <v>1</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>1</v>
+      </c>
+      <c r="X132">
+        <v>1</v>
+      </c>
+      <c r="Y132">
+        <v>1</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>240</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>239</v>
+      </c>
+      <c r="E133" t="s">
+        <v>238</v>
+      </c>
+      <c r="F133">
+        <v>56</v>
+      </c>
+      <c r="G133">
+        <v>68</v>
+      </c>
+      <c r="H133">
+        <v>0.75</v>
+      </c>
+      <c r="I133">
+        <v>1.05</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133" t="s">
+        <v>19</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>1</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>1</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>242</v>
+      </c>
+      <c r="E134" t="s">
+        <v>238</v>
+      </c>
+      <c r="F134">
+        <v>48</v>
+      </c>
+      <c r="G134">
+        <v>66</v>
+      </c>
+      <c r="H134">
+        <v>0.5</v>
+      </c>
+      <c r="I134">
+        <v>0.8</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134" t="s">
+        <v>245</v>
+      </c>
+      <c r="T134">
+        <v>1</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>1</v>
+      </c>
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>244</v>
+      </c>
+      <c r="E135" t="s">
+        <v>238</v>
+      </c>
+      <c r="F135">
+        <v>46</v>
+      </c>
+      <c r="G135">
+        <v>56</v>
+      </c>
+      <c r="H135">
+        <v>0.45</v>
+      </c>
+      <c r="I135">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J135" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K135" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>1</v>
+      </c>
+      <c r="S135" t="s">
+        <v>246</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>1</v>
+      </c>
+      <c r="W135">
+        <v>1</v>
+      </c>
+      <c r="X135">
+        <v>1</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>247</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>248</v>
+      </c>
+      <c r="E136" t="s">
+        <v>238</v>
+      </c>
+      <c r="F136">
+        <v>71</v>
+      </c>
+      <c r="G136">
+        <v>86</v>
+      </c>
+      <c r="H136">
+        <v>1.2</v>
+      </c>
+      <c r="I136">
+        <v>1.8</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136" t="s">
+        <v>19</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>1</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>1</v>
+      </c>
+      <c r="X136">
+        <v>1</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>249</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>250</v>
+      </c>
+      <c r="E137" t="s">
+        <v>251</v>
+      </c>
+      <c r="F137">
+        <v>60</v>
+      </c>
+      <c r="G137">
+        <v>68</v>
+      </c>
+      <c r="H137">
+        <v>1.6</v>
+      </c>
+      <c r="I137">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J137" s="3">
+        <v>137</v>
+      </c>
+      <c r="K137" s="3">
+        <v>150</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137" t="s">
+        <v>19</v>
+      </c>
+      <c r="T137">
+        <v>1</v>
+      </c>
+      <c r="U137">
+        <v>1</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>1</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>252</v>
+      </c>
+      <c r="C138" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" t="s">
+        <v>253</v>
+      </c>
+      <c r="E138" t="s">
+        <v>251</v>
+      </c>
+      <c r="F138">
+        <v>64</v>
+      </c>
+      <c r="G138">
+        <v>81</v>
+      </c>
+      <c r="H138">
+        <v>1.99</v>
+      </c>
+      <c r="I138">
+        <v>2.1</v>
+      </c>
+      <c r="J138" s="3">
+        <v>170</v>
+      </c>
+      <c r="K138" s="3">
+        <v>178</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138" t="s">
+        <v>19</v>
+      </c>
+      <c r="T138">
+        <v>1</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>1</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>255</v>
+      </c>
+      <c r="E139" t="s">
+        <v>256</v>
+      </c>
+      <c r="F139">
+        <v>54</v>
+      </c>
+      <c r="G139">
+        <v>58</v>
+      </c>
+      <c r="H139">
+        <v>1.4</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" s="3">
+        <v>150</v>
+      </c>
+      <c r="K139" s="3">
+        <v>180</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139" t="s">
+        <v>19</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>1</v>
+      </c>
+      <c r="V139">
+        <v>1</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>1</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>259</v>
+      </c>
+      <c r="E140" t="s">
+        <v>257</v>
+      </c>
+      <c r="F140">
+        <v>50</v>
+      </c>
+      <c r="G140">
+        <v>64</v>
+      </c>
+      <c r="H140">
+        <v>0.37</v>
+      </c>
+      <c r="I140">
+        <v>0.6</v>
+      </c>
+      <c r="J140" s="3">
+        <v>121</v>
+      </c>
+      <c r="K140" s="3">
+        <v>123</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140" t="s">
+        <v>19</v>
+      </c>
+      <c r="T140">
+        <v>1</v>
+      </c>
+      <c r="U140">
+        <v>1</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>1</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C141" t="s">
+        <v>167</v>
+      </c>
+      <c r="D141" t="s">
+        <v>261</v>
+      </c>
+      <c r="E141" t="s">
+        <v>257</v>
+      </c>
+      <c r="F141">
+        <v>34</v>
+      </c>
+      <c r="G141">
+        <v>37</v>
+      </c>
+      <c r="H141">
+        <v>0.216</v>
+      </c>
+      <c r="I141">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J141" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141" t="s">
+        <v>19</v>
+      </c>
+      <c r="T141">
+        <v>1</v>
+      </c>
+      <c r="U141">
+        <v>1</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>1</v>
+      </c>
+      <c r="X141">
+        <v>1</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>262</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>263</v>
+      </c>
+      <c r="E142" t="s">
+        <v>257</v>
+      </c>
+      <c r="F142">
+        <v>71</v>
+      </c>
+      <c r="G142">
+        <v>96</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>6.3</v>
+      </c>
+      <c r="J142" s="3">
+        <v>203</v>
+      </c>
+      <c r="K142" s="3">
+        <v>205</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142" t="s">
+        <v>19</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>1</v>
+      </c>
+      <c r="V142">
+        <v>1</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>1</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>265</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>264</v>
+      </c>
+      <c r="E143" t="s">
+        <v>257</v>
+      </c>
+      <c r="F143">
+        <v>46</v>
+      </c>
+      <c r="G143">
+        <v>50</v>
+      </c>
+      <c r="H143">
+        <v>0.3</v>
+      </c>
+      <c r="I143">
+        <v>0.75</v>
+      </c>
+      <c r="J143" s="3">
+        <v>102</v>
+      </c>
+      <c r="K143" s="3">
+        <v>118</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143" t="s">
+        <v>19</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>1</v>
+      </c>
+      <c r="V143">
+        <v>1</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>1</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>266</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>267</v>
+      </c>
+      <c r="E144" t="s">
+        <v>257</v>
+      </c>
+      <c r="F144">
+        <v>24</v>
+      </c>
+      <c r="G144">
+        <v>34</v>
+      </c>
+      <c r="H144">
+        <v>0.87</v>
+      </c>
+      <c r="I144">
+        <v>0.218</v>
+      </c>
+      <c r="J144" s="3">
+        <v>43</v>
+      </c>
+      <c r="K144" s="3">
+        <v>56</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144" t="s">
+        <v>19</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>1</v>
+      </c>
+      <c r="V144">
+        <v>1</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>1</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>268</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>269</v>
+      </c>
+      <c r="E145" t="s">
+        <v>257</v>
+      </c>
+      <c r="F145">
+        <v>37</v>
+      </c>
+      <c r="G145">
+        <v>39</v>
+      </c>
+      <c r="H145">
+        <v>0.22</v>
+      </c>
+      <c r="I145">
+        <v>0.41</v>
+      </c>
+      <c r="J145" s="3">
+        <v>62</v>
+      </c>
+      <c r="K145" s="3">
+        <v>90</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145" t="s">
+        <v>19</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>1</v>
+      </c>
+      <c r="V145">
+        <v>1</v>
+      </c>
+      <c r="W145">
+        <v>1</v>
+      </c>
+      <c r="X145">
+        <v>1</v>
+      </c>
+      <c r="Y145">
+        <v>1</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>271</v>
+      </c>
+      <c r="E146" t="s">
+        <v>257</v>
+      </c>
+      <c r="F146">
+        <v>53</v>
+      </c>
+      <c r="G146">
+        <v>64</v>
+      </c>
+      <c r="H146">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="I146">
+        <v>1.365</v>
+      </c>
+      <c r="J146" s="3">
+        <v>103</v>
+      </c>
+      <c r="K146" s="3">
+        <v>117</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146" t="s">
+        <v>19</v>
+      </c>
+      <c r="T146">
+        <v>1</v>
+      </c>
+      <c r="U146">
+        <v>1</v>
+      </c>
+      <c r="V146">
+        <v>1</v>
+      </c>
+      <c r="W146">
+        <v>1</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>1</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>272</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>273</v>
+      </c>
+      <c r="E147" t="s">
+        <v>257</v>
+      </c>
+      <c r="F147">
+        <v>43</v>
+      </c>
+      <c r="G147">
+        <v>53</v>
+      </c>
+      <c r="H147">
+        <v>0.92</v>
+      </c>
+      <c r="I147">
+        <v>0.94</v>
+      </c>
+      <c r="J147" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147" t="s">
+        <v>19</v>
+      </c>
+      <c r="T147">
+        <v>1</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>1</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>1</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>274</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>275</v>
+      </c>
+      <c r="E148" t="s">
+        <v>257</v>
+      </c>
+      <c r="F148">
+        <v>46</v>
+      </c>
+      <c r="G148">
+        <v>59</v>
+      </c>
+      <c r="H148">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="I148">
+        <v>0.88</v>
+      </c>
+      <c r="J148" s="3">
+        <v>103</v>
+      </c>
+      <c r="K148" s="3">
+        <v>119</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148" t="s">
+        <v>19</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>1</v>
+      </c>
+      <c r="V148">
+        <v>1</v>
+      </c>
+      <c r="W148">
+        <v>1</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>1</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>276</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>277</v>
+      </c>
+      <c r="E149" t="s">
+        <v>257</v>
+      </c>
+      <c r="F149">
+        <v>43</v>
+      </c>
+      <c r="G149">
+        <v>61</v>
+      </c>
+      <c r="H149">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I149">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="J149" s="3">
+        <v>94</v>
+      </c>
+      <c r="K149" s="3">
+        <v>111</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149" t="s">
+        <v>19</v>
+      </c>
+      <c r="T149">
+        <v>1</v>
+      </c>
+      <c r="U149">
+        <v>1</v>
+      </c>
+      <c r="V149">
+        <v>1</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>1</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>279</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>278</v>
+      </c>
+      <c r="E150" t="s">
+        <v>257</v>
+      </c>
+      <c r="F150">
+        <v>34</v>
+      </c>
+      <c r="G150">
+        <v>44</v>
+      </c>
+      <c r="H150">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="I150">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J150" s="3">
+        <v>81</v>
+      </c>
+      <c r="K150" s="3">
+        <v>100</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150" t="s">
+        <v>19</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>1</v>
+      </c>
+      <c r="V150">
+        <v>1</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>1</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>280</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>281</v>
+      </c>
+      <c r="E151" t="s">
+        <v>257</v>
+      </c>
+      <c r="F151">
+        <v>48</v>
+      </c>
+      <c r="G151">
+        <v>56</v>
+      </c>
+      <c r="H151">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="I151">
+        <v>1.367</v>
+      </c>
+      <c r="J151" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151" t="s">
+        <v>19</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>1</v>
+      </c>
+      <c r="V151">
+        <v>1</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>1</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>283</v>
+      </c>
+      <c r="E152" t="s">
+        <v>257</v>
+      </c>
+      <c r="F152">
+        <v>45</v>
+      </c>
+      <c r="G152">
+        <v>56</v>
+      </c>
+      <c r="H152">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I152">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J152" s="3">
+        <v>119</v>
+      </c>
+      <c r="K152" s="3">
+        <v>140</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152" t="s">
+        <v>19</v>
+      </c>
+      <c r="T152">
+        <v>1</v>
+      </c>
+      <c r="U152">
+        <v>1</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>285</v>
+      </c>
+      <c r="E153" t="s">
+        <v>257</v>
+      </c>
+      <c r="F153">
+        <v>45</v>
+      </c>
+      <c r="G153">
+        <v>65</v>
+      </c>
+      <c r="H153">
+        <v>0.69</v>
+      </c>
+      <c r="I153">
+        <v>1.46</v>
+      </c>
+      <c r="J153" s="3">
+        <v>114</v>
+      </c>
+      <c r="K153" s="3">
+        <v>133</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153" t="s">
+        <v>19</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>1</v>
+      </c>
+      <c r="V153">
+        <v>1</v>
+      </c>
+      <c r="W153">
+        <v>1</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>1</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+      <c r="AB153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>286</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>287</v>
+      </c>
+      <c r="E154" t="s">
+        <v>257</v>
+      </c>
+      <c r="F154">
+        <v>56</v>
+      </c>
+      <c r="G154">
+        <v>69</v>
+      </c>
+      <c r="H154">
+        <v>0.997</v>
+      </c>
+      <c r="I154">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="J154" s="3">
+        <v>133</v>
+      </c>
+      <c r="K154" s="3">
+        <v>142</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154" t="s">
+        <v>19</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>1</v>
+      </c>
+      <c r="V154">
+        <v>1</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>1</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+      <c r="AB154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>288</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>289</v>
+      </c>
+      <c r="E155" t="s">
+        <v>257</v>
+      </c>
+      <c r="F155">
+        <v>47</v>
+      </c>
+      <c r="G155">
+        <v>52</v>
+      </c>
+      <c r="H155">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I155">
+        <v>1.4</v>
+      </c>
+      <c r="J155" s="3">
+        <v>132</v>
+      </c>
+      <c r="K155" s="3">
+        <v>138</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155" t="s">
+        <v>19</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>1</v>
+      </c>
+      <c r="V155">
+        <v>1</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>290</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>291</v>
+      </c>
+      <c r="E156" t="s">
+        <v>257</v>
+      </c>
+      <c r="F156">
+        <v>70</v>
+      </c>
+      <c r="G156">
+        <v>84</v>
+      </c>
+      <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156">
+        <v>6.125</v>
+      </c>
+      <c r="J156" s="3">
+        <v>185</v>
+      </c>
+      <c r="K156" s="3">
+        <v>220</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156" t="s">
+        <v>19</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>1</v>
+      </c>
+      <c r="V156">
+        <v>1</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>1</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+      <c r="AB156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>293</v>
+      </c>
+      <c r="E157" t="s">
+        <v>294</v>
+      </c>
+      <c r="F157">
+        <v>49</v>
+      </c>
+      <c r="G157">
+        <v>58</v>
+      </c>
+      <c r="H157">
+        <v>1.05</v>
+      </c>
+      <c r="I157">
+        <v>1.3</v>
+      </c>
+      <c r="J157" s="3">
+        <v>119</v>
+      </c>
+      <c r="K157" s="3">
+        <v>121</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1</v>
+      </c>
+      <c r="S157" t="s">
+        <v>19</v>
+      </c>
+      <c r="T157">
+        <v>1</v>
+      </c>
+      <c r="U157">
+        <v>1</v>
+      </c>
+      <c r="V157">
+        <v>1</v>
+      </c>
+      <c r="W157">
+        <v>1</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>1</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>295</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>296</v>
+      </c>
+      <c r="E158" t="s">
+        <v>294</v>
+      </c>
+      <c r="F158">
+        <v>22</v>
+      </c>
+      <c r="G158">
+        <v>31</v>
+      </c>
+      <c r="H158">
+        <v>0.08</v>
+      </c>
+      <c r="I158">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J158" s="3">
+        <v>51</v>
+      </c>
+      <c r="K158" s="3">
+        <v>61</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158" t="s">
+        <v>19</v>
+      </c>
+      <c r="T158">
+        <v>1</v>
+      </c>
+      <c r="U158">
+        <v>1</v>
+      </c>
+      <c r="V158">
+        <v>1</v>
+      </c>
+      <c r="W158">
+        <v>1</v>
+      </c>
+      <c r="X158">
+        <v>1</v>
+      </c>
+      <c r="Y158">
+        <v>1</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>297</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>298</v>
+      </c>
+      <c r="E159" t="s">
+        <v>294</v>
+      </c>
+      <c r="F159">
+        <v>21</v>
+      </c>
+      <c r="G159">
+        <v>30</v>
+      </c>
+      <c r="H159">
+        <v>0.16</v>
+      </c>
+      <c r="I159">
+        <v>0.24</v>
+      </c>
+      <c r="J159" s="3">
+        <v>53</v>
+      </c>
+      <c r="K159" s="3">
+        <v>68</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159" t="s">
+        <v>19</v>
+      </c>
+      <c r="T159">
+        <v>1</v>
+      </c>
+      <c r="U159">
+        <v>1</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>1</v>
+      </c>
+      <c r="Y159">
+        <v>1</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
+      </c>
+      <c r="AB159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>299</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>300</v>
+      </c>
+      <c r="E160" t="s">
+        <v>294</v>
+      </c>
+      <c r="F160">
+        <v>48</v>
+      </c>
+      <c r="G160">
+        <v>64</v>
+      </c>
+      <c r="H160">
+        <v>0.8</v>
+      </c>
+      <c r="I160">
+        <v>2.1</v>
+      </c>
+      <c r="J160" s="3">
+        <v>122</v>
+      </c>
+      <c r="K160" s="3">
+        <v>124</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160" t="s">
+        <v>19</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>1</v>
+      </c>
+      <c r="V160">
+        <v>1</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>1</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>301</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s">
+        <v>302</v>
+      </c>
+      <c r="E161" t="s">
+        <v>294</v>
+      </c>
+      <c r="F161">
+        <v>36</v>
+      </c>
+      <c r="G161">
+        <v>49</v>
+      </c>
+      <c r="H161">
+        <v>0.53</v>
+      </c>
+      <c r="I161">
+        <v>1.6</v>
+      </c>
+      <c r="J161" s="3">
+        <v>100</v>
+      </c>
+      <c r="K161" s="3">
+        <v>110</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161" t="s">
+        <v>19</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>1</v>
+      </c>
+      <c r="V161">
+        <v>1</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>1</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>303</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>304</v>
+      </c>
+      <c r="E162" t="s">
+        <v>294</v>
+      </c>
+      <c r="F162">
+        <v>37</v>
+      </c>
+      <c r="G162">
+        <v>47</v>
+      </c>
+      <c r="H162">
+        <v>0.42</v>
+      </c>
+      <c r="I162">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J162" s="3">
+        <v>90</v>
+      </c>
+      <c r="K162" s="3">
+        <v>113</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="S162" t="s">
+        <v>19</v>
+      </c>
+      <c r="T162">
+        <v>1</v>
+      </c>
+      <c r="U162">
+        <v>1</v>
+      </c>
+      <c r="V162">
+        <v>1</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>1</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+      <c r="AB162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>305</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>306</v>
+      </c>
+      <c r="E163" t="s">
+        <v>307</v>
+      </c>
+      <c r="F163">
+        <v>13</v>
+      </c>
+      <c r="G163">
+        <v>18</v>
+      </c>
+      <c r="H163">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I163">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J163" s="3">
+        <v>28</v>
+      </c>
+      <c r="K163" s="3">
+        <v>32</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163" t="s">
+        <v>19</v>
+      </c>
+      <c r="T163">
+        <v>1</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <v>1</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>1</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+      <c r="AB163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>308</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>309</v>
+      </c>
+      <c r="E164" t="s">
+        <v>307</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164">
+        <v>15</v>
+      </c>
+      <c r="H164">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="I164">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J164" s="3">
+        <v>22</v>
+      </c>
+      <c r="K164" s="3">
+        <v>28</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164" t="s">
+        <v>19</v>
+      </c>
+      <c r="T164">
+        <v>1</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>1</v>
+      </c>
+      <c r="W164">
+        <v>1</v>
+      </c>
+      <c r="X164">
+        <v>1</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>311</v>
+      </c>
+      <c r="E165" t="s">
+        <v>307</v>
+      </c>
+      <c r="F165">
+        <v>38</v>
+      </c>
+      <c r="G165">
+        <v>48</v>
+      </c>
+      <c r="H165">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="I165">
+        <v>0.37</v>
+      </c>
+      <c r="J165" s="3">
+        <v>49</v>
+      </c>
+      <c r="K165" s="3">
+        <v>51</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+      <c r="S165" t="s">
+        <v>19</v>
+      </c>
+      <c r="T165">
+        <v>1</v>
+      </c>
+      <c r="U165">
+        <v>1</v>
+      </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>1</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>312</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>313</v>
+      </c>
+      <c r="E166" t="s">
+        <v>307</v>
+      </c>
+      <c r="F166">
+        <v>20</v>
+      </c>
+      <c r="G166">
+        <v>27</v>
+      </c>
+      <c r="H166">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I166">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J166" s="3">
+        <v>32</v>
+      </c>
+      <c r="K166" s="3">
+        <v>38</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166" t="s">
+        <v>19</v>
+      </c>
+      <c r="T166">
+        <v>1</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <v>1</v>
+      </c>
+      <c r="W166">
+        <v>1</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+      <c r="AB166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>314</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>315</v>
+      </c>
+      <c r="E167" t="s">
+        <v>307</v>
+      </c>
+      <c r="F167">
+        <v>20</v>
+      </c>
+      <c r="G167">
+        <v>25</v>
+      </c>
+      <c r="H167">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I167">
+        <v>0.112</v>
+      </c>
+      <c r="J167" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K167" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>1</v>
+      </c>
+      <c r="S167" t="s">
+        <v>19</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>1</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>1</v>
+      </c>
+      <c r="Y167">
+        <v>1</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+      <c r="AB167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>316</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>317</v>
+      </c>
+      <c r="E168" t="s">
+        <v>307</v>
+      </c>
+      <c r="F168">
+        <v>36</v>
+      </c>
+      <c r="G168">
+        <v>37</v>
+      </c>
+      <c r="H168">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I168">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J168" s="3">
+        <v>54</v>
+      </c>
+      <c r="K168" s="3">
+        <v>56</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168" t="s">
+        <v>19</v>
+      </c>
+      <c r="T168">
+        <v>1</v>
+      </c>
+      <c r="U168">
+        <v>1</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>1</v>
+      </c>
+      <c r="X168">
+        <v>1</v>
+      </c>
+      <c r="Y168">
+        <v>1</v>
+      </c>
+      <c r="Z168">
+        <v>1</v>
+      </c>
+      <c r="AA168">
+        <v>1</v>
+      </c>
+      <c r="AB168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>318</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>319</v>
+      </c>
+      <c r="E169" t="s">
+        <v>307</v>
+      </c>
+      <c r="F169">
+        <v>32</v>
+      </c>
+      <c r="G169">
+        <v>35</v>
+      </c>
+      <c r="H169">
+        <v>0.31</v>
+      </c>
+      <c r="I169">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J169" s="3">
+        <v>54</v>
+      </c>
+      <c r="K169" s="3">
+        <v>62</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>1</v>
+      </c>
+      <c r="S169" t="s">
+        <v>19</v>
+      </c>
+      <c r="T169">
+        <v>1</v>
+      </c>
+      <c r="U169">
+        <v>1</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>1</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>1</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>320</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>321</v>
+      </c>
+      <c r="E170" t="s">
+        <v>307</v>
+      </c>
+      <c r="F170">
+        <v>39.4</v>
+      </c>
+      <c r="G170">
+        <v>42.9</v>
+      </c>
+      <c r="H170">
+        <v>0.6</v>
+      </c>
+      <c r="I170">
+        <v>0.7</v>
+      </c>
+      <c r="J170" s="3">
+        <v>58.4</v>
+      </c>
+      <c r="K170" s="3">
+        <v>63.5</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170" t="s">
+        <v>19</v>
+      </c>
+      <c r="T170">
+        <v>1</v>
+      </c>
+      <c r="U170">
+        <v>1</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>322</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>323</v>
+      </c>
+      <c r="E171" t="s">
+        <v>324</v>
+      </c>
+      <c r="F171">
+        <v>119</v>
+      </c>
+      <c r="G171">
+        <v>121</v>
+      </c>
+      <c r="H171">
+        <v>3.4</v>
+      </c>
+      <c r="I171">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J171" s="3">
+        <v>199</v>
+      </c>
+      <c r="K171" s="3">
+        <v>201</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>1</v>
+      </c>
+      <c r="S171" t="s">
+        <v>19</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>1</v>
+      </c>
+      <c r="V171">
+        <v>1</v>
+      </c>
+      <c r="W171">
+        <v>1</v>
+      </c>
+      <c r="X171">
+        <v>1</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>325</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" t="s">
+        <v>326</v>
+      </c>
+      <c r="E172" t="s">
+        <v>324</v>
+      </c>
+      <c r="F172">
+        <v>149</v>
+      </c>
+      <c r="G172">
+        <v>150</v>
+      </c>
+      <c r="H172">
+        <v>6</v>
+      </c>
+      <c r="I172">
+        <v>7.8</v>
+      </c>
+      <c r="J172" s="3">
+        <v>228</v>
+      </c>
+      <c r="K172" s="3">
+        <v>230</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172" t="s">
+        <v>19</v>
+      </c>
+      <c r="T172">
+        <v>1</v>
+      </c>
+      <c r="U172">
+        <v>1</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>1</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>327</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>328</v>
+      </c>
+      <c r="E173" t="s">
+        <v>329</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+      <c r="G173">
+        <v>39</v>
+      </c>
+      <c r="H173">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I173">
+        <v>0.22</v>
+      </c>
+      <c r="J173" s="3">
+        <v>70</v>
+      </c>
+      <c r="K173" s="3">
+        <v>72</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>1</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173" t="s">
+        <v>19</v>
+      </c>
+      <c r="T173">
+        <v>1</v>
+      </c>
+      <c r="U173">
+        <v>1</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>1</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>330</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>331</v>
+      </c>
+      <c r="E174" t="s">
+        <v>329</v>
+      </c>
+      <c r="F174">
+        <v>43</v>
+      </c>
+      <c r="G174">
+        <v>47</v>
+      </c>
+      <c r="H174">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I174">
+        <v>0.35</v>
+      </c>
+      <c r="J174" s="3">
+        <v>70</v>
+      </c>
+      <c r="K174" s="3">
+        <v>72</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174" t="s">
+        <v>19</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>1</v>
+      </c>
+      <c r="V174">
+        <v>1</v>
+      </c>
+      <c r="W174">
+        <v>1</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>332</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>333</v>
+      </c>
+      <c r="E175" t="s">
+        <v>334</v>
+      </c>
+      <c r="F175">
+        <v>28</v>
+      </c>
+      <c r="G175">
+        <v>29</v>
+      </c>
+      <c r="H175">
+        <v>0.16</v>
+      </c>
+      <c r="I175">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="J175" s="3">
+        <v>59</v>
+      </c>
+      <c r="K175" s="3">
+        <v>60</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175" t="s">
+        <v>338</v>
+      </c>
+      <c r="T175">
+        <v>1</v>
+      </c>
+      <c r="U175">
+        <v>1</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>335</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>336</v>
+      </c>
+      <c r="E176" t="s">
+        <v>334</v>
+      </c>
+      <c r="F176">
+        <v>24</v>
+      </c>
+      <c r="G176">
+        <v>28</v>
+      </c>
+      <c r="H176">
+        <v>0.122</v>
+      </c>
+      <c r="I176">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="J176" s="3">
+        <v>56</v>
+      </c>
+      <c r="K176" s="3">
+        <v>58</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="S176" t="s">
+        <v>337</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>1</v>
+      </c>
+      <c r="V176">
+        <v>1</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>339</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>340</v>
+      </c>
+      <c r="E177" t="s">
+        <v>334</v>
+      </c>
+      <c r="F177">
+        <v>15</v>
+      </c>
+      <c r="G177">
+        <v>17</v>
+      </c>
+      <c r="H177">
+        <v>34</v>
+      </c>
+      <c r="I177">
+        <v>58</v>
+      </c>
+      <c r="J177" s="3">
+        <v>33</v>
+      </c>
+      <c r="K177" s="3">
+        <v>35</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>1</v>
+      </c>
+      <c r="S177" t="s">
+        <v>19</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>1</v>
+      </c>
+      <c r="V177">
+        <v>1</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>342</v>
+      </c>
+      <c r="E178" t="s">
+        <v>334</v>
+      </c>
+      <c r="F178">
+        <v>17</v>
+      </c>
+      <c r="G178">
+        <v>19</v>
+      </c>
+      <c r="H178">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I178">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J178" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K178" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>1</v>
+      </c>
+      <c r="S178" t="s">
+        <v>19</v>
+      </c>
+      <c r="T178">
+        <v>1</v>
+      </c>
+      <c r="U178">
+        <v>1</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>1</v>
+      </c>
+      <c r="X178">
+        <v>1</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>343</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>344</v>
+      </c>
+      <c r="E179" t="s">
+        <v>334</v>
+      </c>
+      <c r="F179">
+        <v>17</v>
+      </c>
+      <c r="G179">
+        <v>18</v>
+      </c>
+      <c r="H179">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I179">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J179" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K179" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179" t="s">
+        <v>19</v>
+      </c>
+      <c r="T179">
+        <v>1</v>
+      </c>
+      <c r="U179">
+        <v>1</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>1</v>
+      </c>
+      <c r="Y179">
+        <v>1</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>345</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>346</v>
+      </c>
+      <c r="E180" t="s">
+        <v>334</v>
+      </c>
+      <c r="F180">
+        <v>20</v>
+      </c>
+      <c r="G180">
+        <v>28</v>
+      </c>
+      <c r="H180">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I180">
+        <v>0.128</v>
+      </c>
+      <c r="J180" s="3">
+        <v>46</v>
+      </c>
+      <c r="K180" s="3">
+        <v>48</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>1</v>
+      </c>
+      <c r="S180" t="s">
+        <v>19</v>
+      </c>
+      <c r="T180">
+        <v>1</v>
+      </c>
+      <c r="U180">
+        <v>1</v>
+      </c>
+      <c r="V180">
+        <v>1</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+      <c r="AB180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>347</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
+        <v>348</v>
+      </c>
+      <c r="E181" t="s">
+        <v>334</v>
+      </c>
+      <c r="F181">
+        <v>21</v>
+      </c>
+      <c r="G181">
+        <v>23</v>
+      </c>
+      <c r="H181">
+        <v>0.09</v>
+      </c>
+      <c r="I181">
+        <v>0.11</v>
+      </c>
+      <c r="J181" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K181" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
+      </c>
+      <c r="S181" t="s">
+        <v>19</v>
+      </c>
+      <c r="T181">
+        <v>1</v>
+      </c>
+      <c r="U181">
+        <v>1</v>
+      </c>
+      <c r="V181">
+        <v>1</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>349</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>350</v>
+      </c>
+      <c r="E182" t="s">
+        <v>351</v>
+      </c>
+      <c r="F182">
+        <v>18</v>
+      </c>
+      <c r="G182">
+        <v>20</v>
+      </c>
+      <c r="H182">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I182">
+        <v>0.05</v>
+      </c>
+      <c r="J182" s="3">
+        <v>37</v>
+      </c>
+      <c r="K182" s="3">
+        <v>40</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>1</v>
+      </c>
+      <c r="S182" t="s">
+        <v>19</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>1</v>
+      </c>
+      <c r="V182">
+        <v>1</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>1</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+      <c r="AB182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>353</v>
+      </c>
+      <c r="E183" t="s">
+        <v>351</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183">
+        <v>23</v>
+      </c>
+      <c r="H183">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I183">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J183" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="K183" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>1</v>
+      </c>
+      <c r="S183" t="s">
+        <v>19</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>1</v>
+      </c>
+      <c r="V183">
+        <v>1</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>1</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+      <c r="AB183">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
